--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transformer" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="MOSFET" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>PN</t>
   </si>
@@ -258,6 +258,74 @@
   </si>
   <si>
     <t>부품 Total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTMFS5C604NL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTMFS5C468NL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 V, 10.3 m , 37 A, Single N−Channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 V, 1.2 m , 287 A, Single N−Channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 V, 16 m , 42 A, Single N−Channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSC160N10NS3 G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infineon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSC160N10NS3 G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 V, 0.9m , 47 A, Single N−Channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 V, 7.8 m , 50 A,Single N−Channel, DPAK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVMFS5C673NL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 V, 9.2 m , 50 A, Single N−Channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007567159</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007567011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ON Semiconductor </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVMFS5C450NL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 V, 2.8 m , 110 A, Single N−Channel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +335,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1132,7 +1200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1167,21 +1235,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
@@ -1193,9 +1249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1203,12 +1256,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1272,8 +1319,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1336,6 +1406,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1383,7 +1456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1418,7 +1491,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1629,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1679,13 +1752,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="67" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1694,13 +1767,13 @@
       <c r="F4" s="8">
         <v>10</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>90</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>10</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <f>H4*G4</f>
         <v>900</v>
       </c>
@@ -1713,22 +1786,22 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="8">
         <v>50</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>100</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>10</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <f>F5*G5</f>
         <v>5000</v>
       </c>
@@ -1741,7 +1814,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1756,13 +1829,13 @@
       <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>1260</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>2</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <f t="shared" ref="I6:I8" si="0">H6*G6</f>
         <v>2520</v>
       </c>
@@ -1770,7 +1843,7 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1785,13 +1858,13 @@
       <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>7100</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>2</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <f t="shared" si="0"/>
         <v>14200</v>
       </c>
@@ -1799,7 +1872,7 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1814,13 +1887,13 @@
       <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>10080</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>2</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <f t="shared" si="0"/>
         <v>20160</v>
       </c>
@@ -1828,43 +1901,43 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="48" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>11090</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="8"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="31">
         <v>100</v>
       </c>
       <c r="G10" s="18">
@@ -1877,28 +1950,28 @@
         <f>F10*G10</f>
         <v>13000</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>1330</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>10</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <f t="shared" ref="I11:I12" si="1">H11*G11</f>
         <v>13300</v>
       </c>
@@ -1908,22 +1981,22 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>300</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>10</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
@@ -1938,14 +2011,14 @@
       <c r="D13" s="19"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="8"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1960,11 +2033,11 @@
       <c r="F14" s="8">
         <v>10</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>210</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23">
+      <c r="H14" s="22"/>
+      <c r="I14" s="22">
         <f>F14*G14</f>
         <v>2100</v>
       </c>
@@ -1989,11 +2062,11 @@
       <c r="F15" s="10">
         <v>100</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="30">
         <v>20</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30">
         <f>F15*G15</f>
         <v>2000</v>
       </c>
@@ -2042,13 +2115,13 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2061,7 +2134,7 @@
         <v>90</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <f>F18*G18</f>
         <v>9000</v>
       </c>
@@ -2069,9 +2142,9 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="8" t="s">
         <v>15</v>
       </c>
@@ -2082,7 +2155,7 @@
         <v>440</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <f>F19*G19</f>
         <v>4400</v>
       </c>
@@ -2090,13 +2163,13 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="66" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2108,10 +2181,10 @@
       <c r="G20" s="4">
         <v>300</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>10</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <f t="shared" ref="I20:I21" si="2">H20*G20</f>
         <v>3000</v>
       </c>
@@ -2119,9 +2192,9 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="22"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="10" t="s">
         <v>15</v>
       </c>
@@ -2131,10 +2204,10 @@
       <c r="G21" s="6">
         <v>1140</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="30">
         <v>10</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="30">
         <f t="shared" si="2"/>
         <v>11400</v>
       </c>
@@ -2148,281 +2221,281 @@
     </row>
     <row r="24" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="54" t="s">
+      <c r="K25" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="42">
         <v>1</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="26">
         <v>50</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="35">
         <v>100</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="49">
         <v>50</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="55">
         <f>G26*H26</f>
         <v>5000</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="58" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="43">
         <v>2</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="36">
         <v>1</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>1260</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="48">
         <v>20</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="56">
         <f>G27*H27</f>
         <v>25200</v>
       </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="39" t="s">
+      <c r="J27" s="33"/>
+      <c r="K27" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="43">
         <v>1</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="36">
         <v>100</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>130</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="33">
         <v>100</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="56">
         <f>G28*H28</f>
         <v>13000</v>
       </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="39" t="s">
+      <c r="J28" s="33"/>
+      <c r="K28" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="43">
         <v>1</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="36">
         <v>1</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <v>7100</v>
       </c>
-      <c r="H29" s="55">
+      <c r="H29" s="48">
         <v>2</v>
       </c>
-      <c r="I29" s="63">
-        <f t="shared" ref="I29:I33" si="3">G29*H29</f>
+      <c r="I29" s="56">
+        <f t="shared" ref="I29:I32" si="3">G29*H29</f>
         <v>14200</v>
       </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="39" t="s">
+      <c r="J29" s="33"/>
+      <c r="K29" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="43">
         <v>1</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="36">
         <v>1</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>10080</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="48">
         <v>2</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="56">
         <f t="shared" si="3"/>
         <v>20160</v>
       </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="39" t="s">
+      <c r="J30" s="33"/>
+      <c r="K30" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="36">
         <v>1</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="36">
         <v>1</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>11090</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="48">
         <v>2</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="56">
         <f t="shared" si="3"/>
         <v>22180</v>
       </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="60" t="s">
+      <c r="J31" s="33"/>
+      <c r="K31" s="53" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="43">
         <v>1</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="36">
         <v>10</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>210</v>
       </c>
-      <c r="H32" s="55">
+      <c r="H32" s="48">
         <v>30</v>
       </c>
-      <c r="I32" s="63">
+      <c r="I32" s="56">
         <f t="shared" si="3"/>
         <v>6300</v>
       </c>
-      <c r="J32" s="40"/>
-      <c r="K32" s="60" t="s">
+      <c r="J32" s="33"/>
+      <c r="K32" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="44">
         <v>4</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="27">
         <v>100</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="30">
         <v>20</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="50">
         <v>220</v>
       </c>
-      <c r="I33" s="66">
+      <c r="I33" s="59">
         <f>G33*H33</f>
         <v>4400</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="60" t="s">
         <v>36</v>
       </c>
       <c r="K33" s="21" t="s">
@@ -2430,29 +2503,29 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H34" s="68" t="s">
+      <c r="H34" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="70">
+      <c r="I34" s="63">
         <f>SUM(I26:I33)</f>
         <v>110440</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H35" s="68" t="s">
+      <c r="H35" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="71">
+      <c r="I35" s="64">
         <f>I34*0.1</f>
         <v>11044</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G36" s="17"/>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="72">
+      <c r="I36" s="65">
         <f>I34+I35</f>
         <v>121484</v>
       </c>
@@ -2463,26 +2536,26 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G38" s="17"/>
-      <c r="H38" s="59"/>
+      <c r="H38" s="52"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2492,12 +2565,379 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="48">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="73">
+        <v>960</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1050</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>1.33</v>
+      </c>
+      <c r="K10">
+        <v>0.75</v>
+      </c>
+      <c r="L10">
+        <v>1.27</v>
+      </c>
+      <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O10">
+        <v>4.53</v>
+      </c>
+      <c r="P10" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K11">
+        <f>K10/2</f>
+        <v>0.375</v>
+      </c>
+      <c r="L11" s="1">
+        <f>L10/2</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="M11">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="N11" s="1">
+        <f>N10/2</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="P11" s="1">
+        <f>P10/2</f>
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>-0.5</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>SUM(J10:J12)</f>
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="M13">
+        <f>SUM(M10:M12)</f>
+        <v>5.4950000000000001</v>
+      </c>
+      <c r="O13">
+        <f>SUM(O10:O12)</f>
+        <v>6.4950000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <f>SUM(O13:O14)</f>
+        <v>0.39500000000000046</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O16" s="1">
+        <f>O15/2</f>
+        <v>0.19750000000000023</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>3.2</v>
+      </c>
+      <c r="K17">
+        <v>1.33</v>
+      </c>
+      <c r="L17">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L18">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f>SUM(J17:J18)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K19">
+        <f>SUM(K17:K18)</f>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f>SUM(L17:L19)</f>
+        <v>6.4950000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>3.2</v>
+      </c>
+      <c r="N23">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <f>SUM(N23:N25)</f>
+        <v>3.2949999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="M27">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J28" s="1">
+        <f>J27/2</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K28">
+        <v>1.33</v>
+      </c>
+      <c r="M28">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <f>SUM(M27:M28)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="K30">
+        <v>-1.33</v>
+      </c>
+      <c r="L30">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M30">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J34" s="1">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <f>SUM(J33:J34)</f>
+        <v>2.7749999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>-2.7749999999999999</v>
+      </c>
+      <c r="K37">
+        <v>-0.90500000000000003</v>
+      </c>
+      <c r="L37">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Transformer" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
   <si>
     <t>PN</t>
   </si>
@@ -31,18 +31,18 @@
   </si>
   <si>
     <t>220uF/16V ALUMINUM CAPACITORS 6.3pi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SAMYOUNG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Agency</t>
@@ -55,34 +55,34 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>디바이스마트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SMD E/C 16V 220uF (85℃)/6.3Ø x8mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>220uF 16V 85℃-(6.3X7.7)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -110,62 +110,62 @@
   </si>
   <si>
     <t>53261-0471</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Molex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P005634281 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P001635537</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P005634253</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P005634322</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>장보고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>53261-0371</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 3-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P_value</t>
@@ -175,25 +175,25 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Power MOSFET 40V, Single N-Channel, 101A DPAK</t>
@@ -203,130 +203,166 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210607-R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가세</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품 Total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTMFS5C604NL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTMFS5C468NL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 V, 10.3 m , 37 A, Single N−Channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 V, 1.2 m , 287 A, Single N−Channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 V, 16 m , 42 A, Single N−Channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSC160N10NS3 G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>infineon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSC160N10NS3 G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 V, 0.9m , 47 A, Single N−Channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 V, 7.8 m , 50 A,Single N−Channel, DPAK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVMFS5C673NL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 V, 9.2 m , 50 A, Single N−Channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007567159</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007567011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ON Semiconductor </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVMFS5C450NL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 V, 2.8 m , 110 A, Single N−Channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVMFS5C450NL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVMFS5C450NL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T491D227K016AT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEMET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007223445</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP TANT 220UF 16V 10% 2917</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가세</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부품 Total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTMFS5C604NL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTMFS5C468NL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 V, 10.3 m , 37 A, Single N−Channel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60 V, 1.2 m , 287 A, Single N−Channel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 V, 16 m , 42 A, Single N−Channel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>infineon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 V, 0.9m , 47 A, Single N−Channel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 V, 7.8 m , 50 A,Single N−Channel, DPAK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVMFS5C673NL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60 V, 9.2 m , 50 A, Single N−Channel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007567159</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007567011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ON Semiconductor </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 V, 2.8 m , 110 A, Single N−Channel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장보고 재고 있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/5일 구매</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -337,12 +373,20 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,7 +589,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +778,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,160 +1097,160 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1217,13 +1267,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1240,7 +1290,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,7 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,32 +1317,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1307,26 +1357,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1339,11 +1400,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1411,6 +1487,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>36685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6076949" y="3808585"/>
+          <a:ext cx="11306175" cy="2963690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8943975" y="228600"/>
+          <a:ext cx="5553075" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1700,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L39"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1714,6 +1905,7 @@
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1752,13 +1944,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1786,9 +1978,9 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1813,44 +2005,46 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
+    <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="48">
+        <v>5</v>
       </c>
       <c r="G6" s="22">
-        <v>1260</v>
+        <v>2280</v>
       </c>
       <c r="H6" s="22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" ref="I6:I8" si="0">H6*G6</f>
-        <v>2520</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="12"/>
+        <f>F6*G6</f>
+        <v>11400</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="53" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>15</v>
@@ -1859,501 +2053,501 @@
         <v>1</v>
       </c>
       <c r="G7" s="22">
-        <v>7100</v>
+        <v>1260</v>
       </c>
       <c r="H7" s="22">
         <v>2</v>
       </c>
       <c r="I7" s="22">
+        <f t="shared" ref="I7:I10" si="0">H7*G7</f>
+        <v>2520</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="79">
+        <v>1</v>
+      </c>
+      <c r="G8" s="80">
+        <v>960</v>
+      </c>
+      <c r="H8" s="22">
+        <v>20</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="0"/>
+        <v>19200</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
+        <v>7100</v>
+      </c>
+      <c r="H9" s="22">
+        <v>2</v>
+      </c>
+      <c r="I9" s="22">
         <f t="shared" si="0"/>
         <v>14200</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G10" s="22">
         <v>10080</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H10" s="22">
         <v>2</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I10" s="22">
         <f t="shared" si="0"/>
         <v>20160</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22">
-        <v>11090</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="31">
-        <v>100</v>
-      </c>
-      <c r="G10" s="18">
-        <v>130</v>
-      </c>
-      <c r="H10" s="18">
-        <v>10</v>
-      </c>
-      <c r="I10" s="18">
-        <f>F10*G10</f>
-        <v>13000</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="48" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
       </c>
       <c r="G11" s="22">
+        <v>11090</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="31">
+        <v>100</v>
+      </c>
+      <c r="G12" s="18">
+        <v>130</v>
+      </c>
+      <c r="H12" s="18">
+        <v>10</v>
+      </c>
+      <c r="I12" s="18">
+        <f>F12*G12</f>
+        <v>13000</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="71"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22">
         <v>1330</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H13" s="22">
         <v>10</v>
       </c>
-      <c r="I11" s="22">
-        <f t="shared" ref="I11:I12" si="1">H11*G11</f>
+      <c r="I13" s="22">
+        <f t="shared" ref="I13:I14" si="1">H13*G13</f>
         <v>13300</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="12" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="8" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="71"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F14" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G14" s="22">
         <v>300</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H14" s="22">
         <v>10</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I14" s="22">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="12">
+      <c r="J14" s="8"/>
+      <c r="K14" s="12">
         <v>36474</v>
       </c>
     </row>
-    <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+    <row r="15" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F16" s="8">
         <v>10</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G16" s="22">
         <v>210</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
-        <f>F14*G14</f>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22">
+        <f>F16*G16</f>
         <v>2100</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="12" t="s">
+      <c r="J16" s="8"/>
+      <c r="K16" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="20" t="s">
+    <row r="17" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F17" s="10">
         <v>100</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G17" s="30">
         <v>20</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30">
-        <f>F15*G15</f>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30">
+        <f>F17*G17</f>
         <v>2000</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K17" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+    <row r="18" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K19" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="68" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C20" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D20" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F20" s="2">
         <v>100</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G20" s="4">
         <v>90</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="22">
-        <f>F18*G18</f>
+      <c r="H20" s="4"/>
+      <c r="I20" s="22">
+        <f>F20*G20</f>
         <v>9000</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="68"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4">
-        <v>440</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="22">
-        <f>F19*G19</f>
-        <v>4400</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>300</v>
-      </c>
-      <c r="H20" s="22">
-        <v>10</v>
-      </c>
-      <c r="I20" s="22">
-        <f t="shared" ref="I20:I21" si="2">H20*G20</f>
-        <v>3000</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="71"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="73"/>
       <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="72"/>
+      <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <v>440</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="22">
+        <f>F21*G21</f>
+        <v>4400</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="4">
+        <v>300</v>
+      </c>
+      <c r="H22" s="22">
+        <v>10</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" ref="I22:I23" si="2">H22*G22</f>
+        <v>3000</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="76"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
         <v>1140</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H23" s="30">
         <v>10</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I23" s="30">
         <f t="shared" si="2"/>
         <v>11400</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="24" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D27" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G27" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I27" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J27" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K27" s="47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C28" s="42">
         <v>1</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E28" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F28" s="26">
         <v>50</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G28" s="35">
         <v>100</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H28" s="35">
         <v>50</v>
       </c>
-      <c r="I26" s="55">
-        <f>G26*H26</f>
+      <c r="I28" s="55">
+        <f>G28*H28</f>
         <v>5000</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="51" t="s">
+      <c r="J28" s="37"/>
+      <c r="K28" s="51" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="43">
-        <v>2</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="36">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22">
-        <v>1260</v>
-      </c>
-      <c r="H27" s="48">
-        <v>20</v>
-      </c>
-      <c r="I27" s="56">
-        <f>G27*H27</f>
-        <v>25200</v>
-      </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="43">
-        <v>1</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="36">
-        <v>100</v>
-      </c>
-      <c r="G28" s="22">
-        <v>130</v>
-      </c>
-      <c r="H28" s="33">
-        <v>100</v>
-      </c>
-      <c r="I28" s="56">
-        <f>G28*H28</f>
-        <v>13000</v>
-      </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C29" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="48" t="s">
         <v>15</v>
@@ -2362,202 +2556,294 @@
         <v>1</v>
       </c>
       <c r="G29" s="22">
-        <v>7100</v>
-      </c>
-      <c r="H29" s="48">
-        <v>2</v>
+        <v>1260</v>
+      </c>
+      <c r="H29" s="22">
+        <v>6</v>
       </c>
       <c r="I29" s="56">
-        <f t="shared" ref="I29:I32" si="3">G29*H29</f>
-        <v>14200</v>
+        <f>G29*H29</f>
+        <v>7560</v>
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="43">
-        <v>1</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="48" t="s">
+      <c r="B30" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="36">
+        <v>2</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="81" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="36">
         <v>1</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="82">
+        <v>960</v>
+      </c>
+      <c r="H30" s="22">
+        <v>20</v>
+      </c>
+      <c r="I30" s="22">
+        <v>16400</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="43">
+        <v>1</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="36">
+        <v>100</v>
+      </c>
+      <c r="G31" s="22">
+        <v>130</v>
+      </c>
+      <c r="H31" s="4">
+        <v>100</v>
+      </c>
+      <c r="I31" s="56">
+        <f>G31*H31</f>
+        <v>13000</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="43">
+        <v>1</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="36">
+        <v>2</v>
+      </c>
+      <c r="G32" s="22">
+        <v>7100</v>
+      </c>
+      <c r="H32" s="22">
+        <v>2</v>
+      </c>
+      <c r="I32" s="56">
+        <f t="shared" ref="I32:I35" si="3">G32*H32</f>
+        <v>14200</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="43">
+        <v>1</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="36">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22">
         <v>10080</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H33" s="22">
         <v>2</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I33" s="56">
         <f t="shared" si="3"/>
         <v>20160</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="32" t="s">
+      <c r="J33" s="33"/>
+      <c r="K33" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
+    <row r="34" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C34" s="36">
         <v>1</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D34" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E34" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F34" s="36">
         <v>1</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G34" s="22">
         <v>11090</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H34" s="22">
         <v>2</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I34" s="56">
         <f t="shared" si="3"/>
         <v>22180</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="53" t="s">
+      <c r="J34" s="33"/>
+      <c r="K34" s="53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="57" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C35" s="43">
         <v>1</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D35" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E35" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="36">
-        <v>10</v>
-      </c>
-      <c r="G32" s="22">
+      <c r="F35" s="36">
+        <v>5</v>
+      </c>
+      <c r="G35" s="22">
         <v>210</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H35" s="22">
         <v>30</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I35" s="56">
         <f t="shared" si="3"/>
         <v>6300</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="53" t="s">
+      <c r="J35" s="33"/>
+      <c r="K35" s="53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="23" t="s">
+    <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C36" s="44">
         <v>4</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E36" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F36" s="27">
         <v>100</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G36" s="30">
         <v>20</v>
       </c>
-      <c r="H33" s="50">
-        <v>220</v>
-      </c>
-      <c r="I33" s="59">
-        <f>G33*H33</f>
-        <v>4400</v>
-      </c>
-      <c r="J33" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="21" t="s">
+      <c r="H36" s="30">
+        <v>200</v>
+      </c>
+      <c r="I36" s="59">
+        <f>G36*H36</f>
+        <v>4000</v>
+      </c>
+      <c r="J36" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H37" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="63">
+        <f>SUM(I28:I36)</f>
+        <v>108800</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H38" s="61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H34" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="63">
-        <f>SUM(I26:I33)</f>
-        <v>110440</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H35" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="64">
-        <f>I34*0.1</f>
-        <v>11044</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G36" s="17"/>
-      <c r="H36" s="62" t="s">
+      <c r="I38" s="64">
+        <f>I37*0.1</f>
+        <v>10880</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G39" s="17"/>
+      <c r="H39" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="65">
-        <f>I34+I35</f>
-        <v>121484</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G38" s="17"/>
-      <c r="H38" s="52"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="I39" s="65">
+        <f>I37+I38</f>
+        <v>119680</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G41" s="17"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -2567,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2608,7 +2894,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>15</v>
@@ -2622,57 +2908,57 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>73</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="69" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>83</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>15</v>
@@ -2680,22 +2966,22 @@
       <c r="F8" s="31">
         <v>1</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="68">
         <v>960</v>
       </c>
-      <c r="H8" s="73" t="s">
-        <v>80</v>
+      <c r="H8" s="68" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>15</v>
@@ -2707,7 +2993,7 @@
         <v>1050</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
@@ -2938,20 +3224,89 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C6:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetData>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="D6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F6">
+        <v>3.87</v>
+      </c>
+      <c r="G6">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>C6/2</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D6/2</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F6/2</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <f>G6/2</f>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="H7" s="84">
+        <f>SUM(F7:G7)</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <f>F10/2</f>
+        <v>1.2150000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>7.6</v>
+      </c>
+      <c r="D14">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <f>C14/2</f>
+        <v>3.8</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D14/2</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transformer" sheetId="1" r:id="rId1"/>
     <sheet name="MOSFET" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Pipette" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
   <si>
     <t>PN</t>
   </si>
@@ -362,6 +363,62 @@
   </si>
   <si>
     <t>2/5일 구매</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>053048-0410</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch CON,4-Pin, Dip Right angle_Molex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> P005634295 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>053048-0310</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch CON,3-Pin, Dip Right angle_Molex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS-1300C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3T slide Switch, Straight DIP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3T slide Switch, DIP Right Angle, 3.0x12.5x2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3T slide Switch, SMD Right Angle, 3.0x12.5x2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> P000394667 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> P000394663 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS-1310TB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> P006911086 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS-1310MC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1094,6 +1151,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1250,7 +1316,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1379,47 +1445,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1647,7 +1720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1682,7 +1755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1893,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1944,13 +2017,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="79" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1978,9 +2051,9 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
@@ -2066,22 +2139,22 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="70" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="72">
         <v>1</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="73">
         <v>960</v>
       </c>
       <c r="H8" s="22">
@@ -2177,13 +2250,13 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="79" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -2208,9 +2281,9 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2233,9 +2306,9 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
@@ -2367,13 +2440,13 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="78" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2394,9 +2467,9 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2415,13 +2488,13 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="78" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2444,9 +2517,9 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="76"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="74"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="10" t="s">
         <v>15</v>
       </c>
@@ -2472,7 +2545,7 @@
       <c r="I24" s="9"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+      <c r="B26" s="85" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2571,22 +2644,22 @@
       </c>
     </row>
     <row r="30" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="70" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="36">
         <v>2</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="74" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="36">
         <v>1</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="75">
         <v>960</v>
       </c>
       <c r="H30" s="22">
@@ -2596,7 +2669,7 @@
         <v>16400</v>
       </c>
       <c r="J30" s="33"/>
-      <c r="K30" s="83" t="s">
+      <c r="K30" s="76" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2830,18 +2903,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3270,7 +3343,7 @@
         <f>G6/2</f>
         <v>1.1850000000000001</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="77">
         <f>SUM(F7:G7)</f>
         <v>3.12</v>
       </c>
@@ -3309,4 +3382,169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>130</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>1900</v>
+      </c>
+      <c r="G7">
+        <v>450</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>790</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>700</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transformer" sheetId="1" r:id="rId1"/>
-    <sheet name="MOSFET" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="MOSFET" sheetId="2" r:id="rId3"/>
     <sheet name="Pipette" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="155">
   <si>
     <t>PN</t>
   </si>
@@ -390,18 +390,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SP3T slide Switch, Straight DIP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP3T slide Switch, DIP Right Angle, 3.0x12.5x2.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP3T slide Switch, SMD Right Angle, 3.0x12.5x2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> P000394667 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -419,6 +407,206 @@
   </si>
   <si>
     <t>CSS-1310MC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS5050TCU-S-AP-A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (주)디웰전자 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002343866</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0x5.0x1.6 size, RGB full coler, SMD파워 3색 LED </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lite-On Inc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008219901</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASMT-YTD2-0BB02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avago</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P000725384 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTST-C19HE1WT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LTST-C19FD1WT </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P001586603 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED RGB DIFFUSED 0606 SMD - 0.35T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED OGB DIFFUSED 0608 SMD - 0.55T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 color type LED 6-pin, TOP View, R745mcd, G1600mcd, B380mcd</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4x2.8</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.00mm</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTSN-N213EGBW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lite-On Inc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0x12.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5x12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5mm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL-SB-13A-1x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL-SB-13B-11T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P006914254</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL-SB-13C-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P006913975</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3T slide Switch, SMD Right Angle, key 2x0.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3T slide Switch, SMD Right Angle, key 2x1.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3T slide Switch, DIP Right Angle, key 2x1.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3T slide Switch, DIP Right Angle, key 2x0.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3T slide Switch, Straight DIP, key 2x0.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMS-2314A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP3T slide Switch, SMD J-hook Right Angle, key 4x1.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3T slide Switch, SMD J-hook Right Angle, key 2x1.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nidec Copal Electronics Corporation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nidec Copal Electronics Corporation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4x15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_size</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>12512WS-02B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEONHO</t>
+  </si>
+  <si>
+    <t>CON 2-pin, Throgh hole  type</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0x3.6</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2mm</t>
+  </si>
+  <si>
+    <t>053048-0210</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch CON,2-Pin, Dip Right angle_Molex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.25x5.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status LED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAS CON</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +618,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +832,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1316,7 +1511,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1465,12 +1660,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,15 +1682,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -1720,7 +1949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1755,7 +1984,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2017,7 +2246,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="79" t="s">
@@ -2051,7 +2280,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="84"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="8" t="s">
@@ -2250,7 +2479,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="80" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="79" t="s">
@@ -2281,7 +2510,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="84"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="79"/>
       <c r="D13" s="79"/>
       <c r="E13" s="8" t="s">
@@ -2306,7 +2535,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="84"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="79"/>
       <c r="D14" s="79"/>
       <c r="E14" s="8" t="s">
@@ -2440,13 +2669,13 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="82" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="81" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2467,9 +2696,9 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="79"/>
-      <c r="D21" s="78"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2488,13 +2717,13 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="82" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="81" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2517,9 +2746,9 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="83"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="81"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="10" t="s">
         <v>15</v>
       </c>
@@ -2545,7 +2774,7 @@
       <c r="I24" s="9"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="78" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2903,18 +3132,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2923,6 +3152,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="D6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F6">
+        <v>3.87</v>
+      </c>
+      <c r="G6">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>C6/2</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D6/2</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F6/2</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <f>G6/2</f>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="H7" s="77">
+        <f>SUM(F7:G7)</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <f>F10/2</f>
+        <v>1.2150000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>7.6</v>
+      </c>
+      <c r="D14">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <f>C14/2</f>
+        <v>3.8</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D14/2</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P37"/>
   <sheetViews>
@@ -3302,105 +3613,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="D6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F6">
-        <v>3.87</v>
-      </c>
-      <c r="G6">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <f>C6/2</f>
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="D7" s="1">
-        <f>D6/2</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="1">
-        <f>F6/2</f>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <f>G6/2</f>
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="H7" s="77">
-        <f>SUM(F7:G7)</f>
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F10" s="1">
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="1">
-        <f>F10/2</f>
-        <v>1.2150000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>7.6</v>
-      </c>
-      <c r="D14">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
-        <f>C14/2</f>
-        <v>3.8</v>
-      </c>
-      <c r="D15" s="1">
-        <f>D14/2</f>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -3410,29 +3640,35 @@
       <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>93</v>
       </c>
@@ -3442,100 +3678,391 @@
       <c r="D4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="F4" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>130</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="F5" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="86" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="C7" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1900</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>450</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>790</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="48" t="s">
+      <c r="C9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>790</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>700</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="69">
+        <v>1</v>
+      </c>
+      <c r="I12" s="68">
+        <v>1240</v>
+      </c>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="52">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1170</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>490</v>
+      </c>
+      <c r="M18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>680</v>
+      </c>
+      <c r="M19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1990</v>
+      </c>
+      <c r="M20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>620</v>
+      </c>
+      <c r="M21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Transformer" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="MOSFET" sheetId="2" r:id="rId3"/>
     <sheet name="Pipette" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="158">
   <si>
     <t>PN</t>
   </si>
@@ -335,10 +335,6 @@
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T491D227K016AT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -607,6 +603,22 @@
   </si>
   <si>
     <t>GAS CON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T491D227K016AT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P007223445 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/8일 구매</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +853,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,6 +1051,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -1511,7 +1529,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1661,31 +1679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,6 +1715,71 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -1949,7 +2008,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1984,7 +2043,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2193,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2246,13 +2305,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="108" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2280,9 +2339,9 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
@@ -2309,13 +2368,13 @@
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="66" t="s">
-        <v>87</v>
-      </c>
       <c r="D6" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>16</v>
@@ -2335,7 +2394,7 @@
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -2479,13 +2538,13 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="108" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -2510,9 +2569,9 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2535,9 +2594,9 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
@@ -2600,7 +2659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20" t="s">
         <v>34</v>
       </c>
@@ -2631,12 +2690,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>0</v>
       </c>
@@ -2668,14 +2727,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="82" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="110" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2694,11 +2753,17 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="81"/>
+      <c r="L20">
+        <v>650</v>
+      </c>
+      <c r="M20">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="111"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2715,15 +2780,23 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="82" t="s">
+      <c r="L21">
+        <f>L20*500</f>
+        <v>325000</v>
+      </c>
+      <c r="M21">
+        <f>M20*10</f>
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="110" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2745,10 +2818,10 @@
       <c r="J22" s="2"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="85"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="83"/>
+    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="114"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="10" t="s">
         <v>15</v>
       </c>
@@ -2768,17 +2841,17 @@
       <c r="J23" s="3"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="40" t="s">
         <v>42</v>
       </c>
@@ -2810,7 +2883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="28" t="s">
         <v>5</v>
       </c>
@@ -2841,7 +2914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
         <v>19</v>
       </c>
@@ -2872,7 +2945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="70" t="s">
         <v>85</v>
       </c>
@@ -2902,7 +2975,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
         <v>32</v>
       </c>
@@ -2933,65 +3006,69 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="25" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="93">
         <v>1</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="96">
         <v>2</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="97">
         <v>7100</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="97">
         <v>2</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I32" s="98">
         <f t="shared" ref="I32:I35" si="3">G32*H32</f>
         <v>14200</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="32" t="s">
+      <c r="J32" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="93">
         <v>1</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="96">
         <v>1</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="97">
         <v>10080</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="97">
         <v>2</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="98">
         <f t="shared" si="3"/>
         <v>20160</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="32" t="s">
+      <c r="J33" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="K33" s="99" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3084,10 +3161,10 @@
         <v>4000</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
@@ -3118,17 +3195,158 @@
         <v>119680</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="78" t="s">
+        <v>157</v>
+      </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G41" s="17"/>
-      <c r="H41" s="52"/>
+    <row r="41" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="B42" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="102">
+        <v>1</v>
+      </c>
+      <c r="D42" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="26">
+        <v>2</v>
+      </c>
+      <c r="G42" s="35">
+        <v>7100</v>
+      </c>
+      <c r="H42" s="35">
+        <v>2</v>
+      </c>
+      <c r="I42" s="104">
+        <f t="shared" ref="I42:I44" si="4">G42*H42</f>
+        <v>14200</v>
+      </c>
+      <c r="J42" s="49"/>
+      <c r="K42" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="36">
+        <v>1</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="36">
+        <v>1</v>
+      </c>
+      <c r="G43" s="22">
+        <v>11090</v>
+      </c>
+      <c r="H43" s="22">
+        <v>2</v>
+      </c>
+      <c r="I43" s="56">
+        <f t="shared" si="4"/>
+        <v>22180</v>
+      </c>
+      <c r="J43" s="33"/>
+      <c r="K43" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="105">
+        <v>10</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="106">
+        <v>5</v>
+      </c>
+      <c r="G44" s="6">
+        <v>2280</v>
+      </c>
+      <c r="H44" s="6">
+        <v>10</v>
+      </c>
+      <c r="I44" s="59">
+        <f t="shared" si="4"/>
+        <v>22800</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I45" s="24">
+        <f>SUM(I42:I44)</f>
+        <v>59180</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H46" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="64">
+        <f>I45*0.1</f>
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I47" s="65">
+        <f>I45+I46</f>
+        <v>65098</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3617,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3640,11 +3858,11 @@
       <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="87" t="s">
         <v>142</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>143</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>8</v>
@@ -3670,16 +3888,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="91" t="s">
-        <v>125</v>
+        <v>93</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>124</v>
       </c>
       <c r="G4" s="48" t="s">
         <v>15</v>
@@ -3691,18 +3909,18 @@
         <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="91" t="s">
-        <v>125</v>
+      <c r="F5" s="83" t="s">
+        <v>124</v>
       </c>
       <c r="G5" s="48" t="s">
         <v>15</v>
@@ -3716,24 +3934,24 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>131</v>
+      <c r="B7" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>119</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>15</v>
@@ -3745,18 +3963,18 @@
         <v>450</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>119</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>15</v>
@@ -3768,24 +3986,24 @@
         <v>790</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>119</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>15</v>
@@ -3797,52 +4015,52 @@
         <v>700</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="83" t="s">
         <v>124</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="86" t="s">
         <v>124</v>
-      </c>
-      <c r="F12" s="94" t="s">
-        <v>125</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>15</v>
@@ -3857,24 +4075,24 @@
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
       <c r="M12" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="83" t="s">
         <v>124</v>
-      </c>
-      <c r="F13" s="91" t="s">
-        <v>125</v>
       </c>
       <c r="G13" s="48" t="s">
         <v>15</v>
@@ -3886,24 +4104,24 @@
         <v>1170</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>125</v>
+      <c r="F14" s="85" t="s">
+        <v>124</v>
       </c>
       <c r="G14" s="77"/>
       <c r="H14" s="77"/>
@@ -3917,18 +4135,18 @@
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
         <v>104</v>
       </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>15</v>
@@ -3940,18 +4158,18 @@
         <v>490</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>15</v>
@@ -3963,24 +4181,24 @@
         <v>680</v>
       </c>
       <c r="M19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
         <v>110</v>
       </c>
-      <c r="C20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="F20" s="82" t="s">
         <v>119</v>
-      </c>
-      <c r="F20" s="90" t="s">
-        <v>120</v>
       </c>
       <c r="G20" s="48" t="s">
         <v>15</v>
@@ -3992,18 +4210,18 @@
         <v>1990</v>
       </c>
       <c r="M20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="48" t="s">
         <v>15</v>
@@ -4015,54 +4233,54 @@
         <v>620</v>
       </c>
       <c r="M21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="D25" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="E25" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="F25" s="91" t="s">
         <v>147</v>
-      </c>
-      <c r="F25" s="99" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="91" t="s">
-        <v>125</v>
+      <c r="F26" s="83" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
     <sheet name="MOSFET" sheetId="2" r:id="rId3"/>
     <sheet name="Pipette" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
   <si>
     <t>PN</t>
   </si>
@@ -32,18 +32,18 @@
   </si>
   <si>
     <t>220uF/16V ALUMINUM CAPACITORS 6.3pi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SAMYOUNG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Agency</t>
@@ -56,34 +56,34 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>디바이스마트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SMD E/C 16V 220uF (85℃)/6.3Ø x8mm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>220uF 16V 85℃-(6.3X7.7)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -111,62 +111,62 @@
   </si>
   <si>
     <t>53261-0471</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Molex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P005634281 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P001635537</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P005634253</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P005634322</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>장보고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>53261-0371</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 3-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P_value</t>
@@ -176,25 +176,25 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Power MOSFET 40V, Single N-Channel, 101A DPAK</t>
@@ -204,358 +204,358 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210607-R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NTMFS5C604NL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NTMFS5C468NL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 10.3 m , 37 A, Single N−Channel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>60 V, 1.2 m , 287 A, Single N−Channel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>100 V, 16 m , 42 A, Single N−Channel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>infineon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>30 V, 0.9m , 47 A, Single N−Channel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 7.8 m , 50 A,Single N−Channel, DPAK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C673NL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>60 V, 9.2 m , 50 A, Single N−Channel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P007567159</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ON Semiconductor </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 2.8 m , 110 A, Single N−Channel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>KEMET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P007223445</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>053048-0410</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,4-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P005634295 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,3-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1300C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P000394667 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P000394663 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1310TB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P006911086 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1310MC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SDS5050TCU-S-AP-A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> (주)디웰전자 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P002343866</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5.0x5.0x1.6 size, RGB full coler, SMD파워 3색 LED </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Lite-On Inc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P008219901</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Avago</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P000725384 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LTST-C19HE1WT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LTST-C19FD1WT </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P001586603 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LED RGB DIFFUSED 0606 SMD - 0.35T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LED OGB DIFFUSED 0608 SMD - 0.55T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3 color type LED 6-pin, TOP View, R745mcd, G1600mcd, B380mcd</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>3.4x2.8</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>2.00mm</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>LTSN-N213EGBW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Lite-On Inc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3.0x12.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3.5x12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3.5mm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13A-1x</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13B-11T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P006914254</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13C-11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P006913975</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD Right Angle, key 2x0.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, DIP Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, DIP Right Angle, key 2x0.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, Straight DIP, key 2x0.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CMS-2314A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DP3T slide Switch, SMD J-hook Right Angle, key 4x1.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD J-hook Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Nidec Copal Electronics Corporation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Nidec Copal Electronics Corporation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5.4x15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P_size</t>
@@ -565,61 +565,101 @@
   </si>
   <si>
     <t>12512WS-02B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>YEONHO</t>
   </si>
   <si>
     <t>CON 2-pin, Throgh hole  type</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>5.0x3.6</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>4.2mm</t>
   </si>
   <si>
     <t>053048-0210</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,2-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4.25x5.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Status LED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Slide Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GAS CON</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CTX2106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-R</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B180212004001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/12일 구매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -630,12 +670,20 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1376,160 +1424,160 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1546,13 +1594,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1569,7 +1617,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,7 +1626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,32 +1644,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1636,20 +1684,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1658,10 +1706,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1678,7 +1726,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1688,20 +1736,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1713,16 +1761,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1735,13 +1783,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1754,31 +1802,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2008,7 +2059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2043,7 +2094,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2252,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M47"/>
+  <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2305,13 +2356,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="109" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2339,9 +2390,9 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="109"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
@@ -2538,13 +2589,13 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="109" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -2569,9 +2620,9 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="109"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2594,9 +2645,9 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="109"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
@@ -2728,13 +2779,13 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="108" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2761,9 +2812,9 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="111"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="110"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2790,13 +2841,13 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="108" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2819,9 +2870,9 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="114"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="111"/>
       <c r="E23" s="10" t="s">
         <v>15</v>
       </c>
@@ -3266,33 +3317,35 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="96">
         <v>1</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="96">
         <v>1</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="97">
         <v>11090</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="97">
         <v>2</v>
       </c>
-      <c r="I43" s="56">
+      <c r="I43" s="98">
         <f t="shared" si="4"/>
         <v>22180</v>
       </c>
-      <c r="J43" s="33"/>
-      <c r="K43" s="53" t="s">
+      <c r="J43" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="K43" s="99" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3348,22 +3401,143 @@
         <v>65098</v>
       </c>
     </row>
+    <row r="51" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="102">
+        <v>1</v>
+      </c>
+      <c r="D53" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="26">
+        <v>2</v>
+      </c>
+      <c r="G53" s="35">
+        <v>13200</v>
+      </c>
+      <c r="H53" s="35">
+        <v>4</v>
+      </c>
+      <c r="I53" s="104">
+        <f t="shared" ref="I53" si="5">G53*H53</f>
+        <v>52800</v>
+      </c>
+      <c r="J53" s="49"/>
+      <c r="K53" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="I54" s="24">
+        <f>SUM(I53:I53)</f>
+        <v>52800</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="64">
+        <f>I54*0.1</f>
+        <v>5280</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="I56" s="65">
+        <f>I54+I55</f>
+        <v>58080</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -3445,7 +3619,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3826,7 +4000,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4289,7 +4463,7 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -32,18 +32,18 @@
   </si>
   <si>
     <t>220uF/16V ALUMINUM CAPACITORS 6.3pi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SAMYOUNG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Agency</t>
@@ -56,34 +56,34 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>디바이스마트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SMD E/C 16V 220uF (85℃)/6.3Ø x8mm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>220uF 16V 85℃-(6.3X7.7)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -111,62 +111,62 @@
   </si>
   <si>
     <t>53261-0471</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Molex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P005634281 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P001635537</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P005634253</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P005634322</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>장보고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>53261-0371</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 3-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P_value</t>
@@ -176,25 +176,25 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Power MOSFET 40V, Single N-Channel, 101A DPAK</t>
@@ -204,358 +204,358 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210607-R</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NTMFS5C604NL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NTMFS5C468NL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 10.3 m , 37 A, Single N−Channel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>60 V, 1.2 m , 287 A, Single N−Channel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>100 V, 16 m , 42 A, Single N−Channel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>infineon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>30 V, 0.9m , 47 A, Single N−Channel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 7.8 m , 50 A,Single N−Channel, DPAK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C673NL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>60 V, 9.2 m , 50 A, Single N−Channel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P007567159</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ON Semiconductor </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 2.8 m , 110 A, Single N−Channel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>KEMET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P007223445</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>053048-0410</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,4-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P005634295 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,3-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1300C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P000394667 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P000394663 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1310TB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P006911086 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1310MC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SDS5050TCU-S-AP-A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> (주)디웰전자 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P002343866</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5.0x5.0x1.6 size, RGB full coler, SMD파워 3색 LED </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Lite-On Inc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P008219901</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Avago</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P000725384 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LTST-C19HE1WT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LTST-C19FD1WT </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P001586603 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LED RGB DIFFUSED 0606 SMD - 0.35T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LED OGB DIFFUSED 0608 SMD - 0.55T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3 color type LED 6-pin, TOP View, R745mcd, G1600mcd, B380mcd</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>3.4x2.8</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2.00mm</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>LTSN-N213EGBW</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Lite-On Inc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3.0x12.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3.5x12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3.5mm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13A-1x</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13B-11T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P006914254</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13C-11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P006913975</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD Right Angle, key 2x0.6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, DIP Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, DIP Right Angle, key 2x0.6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, Straight DIP, key 2x0.6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CMS-2314A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DP3T slide Switch, SMD J-hook Right Angle, key 4x1.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD J-hook Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Nidec Copal Electronics Corporation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Nidec Copal Electronics Corporation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5.4x15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>P_size</t>
@@ -565,61 +565,61 @@
   </si>
   <si>
     <t>12512WS-02B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>YEONHO</t>
   </si>
   <si>
     <t>CON 2-pin, Throgh hole  type</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>5.0x3.6</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>4.2mm</t>
   </si>
   <si>
     <t>053048-0210</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,2-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4.25x5.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Status LED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Slide Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GAS CON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -647,19 +647,19 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -670,12 +670,20 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1424,160 +1432,160 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1594,13 +1602,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1617,7 +1625,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1626,7 +1634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,32 +1652,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1684,20 +1692,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1706,10 +1714,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1726,7 +1734,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1736,20 +1744,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,16 +1769,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1783,13 +1791,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1802,12 +1810,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1820,18 +1834,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="41" fontId="24" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2059,7 +2070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2094,7 +2105,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2305,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2356,7 +2367,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="110" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="109" t="s">
@@ -2390,7 +2401,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
       <c r="E5" s="8" t="s">
@@ -2589,7 +2600,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="110" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="109" t="s">
@@ -2620,7 +2631,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
       <c r="E13" s="8" t="s">
@@ -2645,7 +2656,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="114"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="109"/>
       <c r="D14" s="109"/>
       <c r="E14" s="8" t="s">
@@ -2779,13 +2790,13 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="112" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="111" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2812,9 +2823,9 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="110"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="109"/>
-      <c r="D21" s="108"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2841,13 +2852,13 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="112" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="111" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2870,9 +2881,9 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="113"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="111"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="10" t="s">
         <v>15</v>
       </c>
@@ -2953,7 +2964,7 @@
       <c r="G28" s="35">
         <v>100</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="119">
         <v>50</v>
       </c>
       <c r="I28" s="55">
@@ -2984,7 +2995,7 @@
       <c r="G29" s="22">
         <v>1260</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="18">
         <v>6</v>
       </c>
       <c r="I29" s="56">
@@ -3015,7 +3026,7 @@
       <c r="G30" s="75">
         <v>960</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="18">
         <v>20</v>
       </c>
       <c r="I30" s="22">
@@ -3045,7 +3056,7 @@
       <c r="G31" s="22">
         <v>130</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="18">
         <v>100</v>
       </c>
       <c r="I31" s="56">
@@ -3142,7 +3153,7 @@
       <c r="G34" s="22">
         <v>11090</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="18">
         <v>2</v>
       </c>
       <c r="I34" s="56">
@@ -3173,7 +3184,7 @@
       <c r="G35" s="22">
         <v>210</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="18">
         <v>30</v>
       </c>
       <c r="I35" s="56">
@@ -3204,7 +3215,7 @@
       <c r="G36" s="30">
         <v>20</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="118">
         <v>200</v>
       </c>
       <c r="I36" s="59">
@@ -3304,7 +3315,7 @@
       <c r="G42" s="35">
         <v>7100</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="119">
         <v>2</v>
       </c>
       <c r="I42" s="104">
@@ -3368,7 +3379,7 @@
       <c r="G44" s="6">
         <v>2280</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="120">
         <v>10</v>
       </c>
       <c r="I44" s="59">
@@ -3447,7 +3458,7 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="117" t="s">
+      <c r="B53" s="108" t="s">
         <v>158</v>
       </c>
       <c r="C53" s="102">
@@ -3524,20 +3535,20 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -3619,7 +3630,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4000,7 +4011,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4112,13 +4123,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="117" t="s">
         <v>130</v>
       </c>
       <c r="E7" t="s">
@@ -4141,9 +4152,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
       <c r="E8" s="1" t="s">
         <v>122</v>
       </c>
@@ -4463,7 +4474,7 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="156">
   <si>
     <t>PN</t>
   </si>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>220uF 16V 85℃-(6.3X7.7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>NTD5802N</t>
   </si>
   <si>
@@ -107,9 +103,6 @@
     <t>CTX210607-R</t>
   </si>
   <si>
-    <t>TRANSFORMER CCFL 6W 15V 11MA SMD Turn-R:86</t>
-  </si>
-  <si>
     <t>53261-0471</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -118,14 +111,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> P005634281 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>P001635537</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>수량</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -134,22 +119,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>P005634253</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>50058-8000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>P005634322</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>장보고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
   </si>
   <si>
@@ -224,10 +197,6 @@
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
-  </si>
-  <si>
-    <t>CTX210607-R</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CTX210605-R</t>
@@ -659,6 +628,14 @@
   </si>
   <si>
     <t>2/12일 구매</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고-2/24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매수량</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1429,6 +1406,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1585,7 +1601,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1597,11 +1613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,9 +1624,6 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1706,12 +1714,6 @@
     <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1722,9 +1724,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1819,30 +1818,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="24" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2070,7 +2106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2105,7 +2141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2314,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M56"/>
+  <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2329,1224 +2365,1151 @@
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="45">
         <v>10</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="G4" s="31">
+        <v>90</v>
+      </c>
+      <c r="H4" s="31">
         <v>10</v>
       </c>
-      <c r="G4" s="22">
-        <v>90</v>
-      </c>
-      <c r="H4" s="22">
-        <v>10</v>
-      </c>
-      <c r="I4" s="22">
-        <f>H4*G4</f>
-        <v>900</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12">
-        <v>4253</v>
+      <c r="I4" s="31">
+        <v>50</v>
+      </c>
+      <c r="J4" s="124">
+        <v>46</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="110"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="8" t="s">
+    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="44">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2280</v>
+      </c>
+      <c r="H5" s="18">
+        <v>10</v>
+      </c>
+      <c r="I5" s="18">
+        <v>10</v>
+      </c>
+      <c r="J5" s="125">
+        <v>3</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="44">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1260</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2</v>
+      </c>
+      <c r="I6" s="18">
+        <v>6</v>
+      </c>
+      <c r="J6" s="125">
+        <v>2</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="66">
+        <v>1</v>
+      </c>
+      <c r="G7" s="120">
+        <v>960</v>
+      </c>
+      <c r="H7" s="18">
+        <v>20</v>
+      </c>
+      <c r="I7" s="18">
+        <v>20</v>
+      </c>
+      <c r="J7" s="125">
+        <v>1</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>7100</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2</v>
+      </c>
+      <c r="J8" s="125">
+        <v>0</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="22">
+      <c r="E9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="44">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
+        <v>11090</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18">
+        <v>2</v>
+      </c>
+      <c r="J9" s="125">
+        <v>0</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="32">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>13200</v>
+      </c>
+      <c r="H10" s="18">
+        <v>4</v>
+      </c>
+      <c r="I10" s="123">
+        <v>4</v>
+      </c>
+      <c r="J10" s="125">
+        <v>0</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="27">
         <v>100</v>
       </c>
-      <c r="H5" s="22">
+      <c r="G11" s="15">
+        <v>130</v>
+      </c>
+      <c r="H11" s="15">
         <v>10</v>
       </c>
-      <c r="I5" s="22">
-        <f>F5*G5</f>
-        <v>5000</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="48">
-        <v>5</v>
-      </c>
-      <c r="G6" s="22">
-        <v>2280</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="I11" s="18">
+        <v>100</v>
+      </c>
+      <c r="J11" s="125">
+        <v>89</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="44">
         <v>10</v>
       </c>
-      <c r="I6" s="22">
-        <f>F6*G6</f>
-        <v>11400</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="G12" s="18">
+        <v>210</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18">
+        <v>30</v>
+      </c>
+      <c r="J12" s="125">
+        <v>14</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="46">
+        <v>100</v>
+      </c>
+      <c r="G13" s="26">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="H13" s="26">
+        <v>20</v>
+      </c>
+      <c r="I13" s="26">
+        <v>200</v>
+      </c>
+      <c r="J13" s="126">
+        <v>100</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="22">
-        <v>1260</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="D15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="22">
-        <f t="shared" ref="I7:I10" si="0">H7*G7</f>
-        <v>2520</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="72">
-        <v>1</v>
-      </c>
-      <c r="G8" s="73">
-        <v>960</v>
-      </c>
-      <c r="H8" s="22">
-        <v>20</v>
-      </c>
-      <c r="I8" s="22">
-        <f t="shared" si="0"/>
-        <v>19200</v>
-      </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22">
-        <v>7100</v>
-      </c>
-      <c r="H9" s="22">
-        <v>2</v>
-      </c>
-      <c r="I9" s="22">
-        <f t="shared" si="0"/>
-        <v>14200</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="E15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22">
-        <v>10080</v>
-      </c>
-      <c r="H10" s="22">
-        <v>2</v>
-      </c>
-      <c r="I10" s="22">
-        <f t="shared" si="0"/>
-        <v>20160</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22">
-        <v>11090</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="31">
-        <v>100</v>
-      </c>
-      <c r="G12" s="18">
-        <v>130</v>
-      </c>
-      <c r="H12" s="18">
-        <v>10</v>
-      </c>
-      <c r="I12" s="18">
-        <f>F12*G12</f>
-        <v>13000</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22">
-        <v>1330</v>
-      </c>
-      <c r="H13" s="22">
-        <v>10</v>
-      </c>
-      <c r="I13" s="22">
-        <f t="shared" ref="I13:I14" si="1">H13*G13</f>
-        <v>13300</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="110"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22">
-        <v>300</v>
-      </c>
-      <c r="H14" s="22">
-        <v>10</v>
-      </c>
-      <c r="I14" s="22">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="12">
-        <v>36474</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>47</v>
+      <c r="D16" s="107" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="2">
+        <v>100</v>
+      </c>
+      <c r="G16" s="4">
+        <v>90</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="18">
+        <f>F16*G16</f>
+        <v>9000</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="5"/>
+      <c r="L16">
+        <v>650</v>
+      </c>
+      <c r="M16">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="109"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
         <v>10</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G17" s="4">
+        <v>440</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="18">
+        <f>F17*G17</f>
+        <v>4400</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="5"/>
+      <c r="L17">
+        <f>L16*500</f>
+        <v>325000</v>
+      </c>
+      <c r="M17">
+        <f>M16*10</f>
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>300</v>
+      </c>
+      <c r="H18" s="18">
+        <v>10</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" ref="I18:I19" si="0">H18*G18</f>
+        <v>3000</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="112"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1140</v>
+      </c>
+      <c r="H19" s="26">
+        <v>10</v>
+      </c>
+      <c r="I19" s="26">
+        <f t="shared" si="0"/>
+        <v>11400</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="22" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="38">
+        <v>1</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="22">
+        <v>50</v>
+      </c>
+      <c r="G24" s="31">
+        <v>100</v>
+      </c>
+      <c r="H24" s="105">
+        <v>50</v>
+      </c>
+      <c r="I24" s="51">
+        <f>G24*H24</f>
+        <v>5000</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="39">
+        <v>2</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="32">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1260</v>
+      </c>
+      <c r="H25" s="15">
+        <v>6</v>
+      </c>
+      <c r="I25" s="52">
+        <f>G25*H25</f>
+        <v>7560</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="32">
+        <v>2</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="32">
+        <v>1</v>
+      </c>
+      <c r="G26" s="68">
+        <v>960</v>
+      </c>
+      <c r="H26" s="15">
+        <v>20</v>
+      </c>
+      <c r="I26" s="18">
+        <v>16400</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="39">
+        <v>1</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="32">
+        <v>100</v>
+      </c>
+      <c r="G27" s="18">
+        <v>130</v>
+      </c>
+      <c r="H27" s="15">
+        <v>100</v>
+      </c>
+      <c r="I27" s="52">
+        <f>G27*H27</f>
+        <v>13000</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="86">
+        <v>1</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="89">
+        <v>2</v>
+      </c>
+      <c r="G28" s="90">
+        <v>7100</v>
+      </c>
+      <c r="H28" s="90">
+        <v>2</v>
+      </c>
+      <c r="I28" s="91">
+        <f t="shared" ref="I28:I31" si="1">G28*H28</f>
+        <v>14200</v>
+      </c>
+      <c r="J28" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="86">
+        <v>1</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="89">
+        <v>1</v>
+      </c>
+      <c r="G29" s="90">
+        <v>10080</v>
+      </c>
+      <c r="H29" s="90">
+        <v>2</v>
+      </c>
+      <c r="I29" s="91">
+        <f t="shared" si="1"/>
+        <v>20160</v>
+      </c>
+      <c r="J29" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="32">
+        <v>1</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="32">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18">
+        <v>11090</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2</v>
+      </c>
+      <c r="I30" s="52">
+        <f t="shared" si="1"/>
+        <v>22180</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="39">
+        <v>1</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="32">
+        <v>5</v>
+      </c>
+      <c r="G31" s="18">
         <v>210</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22">
-        <f>F16*G16</f>
-        <v>2100</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="H31" s="15">
+        <v>30</v>
+      </c>
+      <c r="I31" s="52">
+        <f t="shared" si="1"/>
+        <v>6300</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="40">
+        <v>4</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="23">
+        <v>100</v>
+      </c>
+      <c r="G32" s="26">
+        <v>20</v>
+      </c>
+      <c r="H32" s="104">
+        <v>200</v>
+      </c>
+      <c r="I32" s="55">
+        <f>G32*H32</f>
+        <v>4000</v>
+      </c>
+      <c r="J32" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H33" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="59">
+        <f>SUM(I24:I32)</f>
+        <v>108800</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H34" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="60">
+        <f>I33*0.1</f>
+        <v>10880</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G35" s="14"/>
+      <c r="H35" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="61">
+        <f>I33+I34</f>
+        <v>119680</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="I37" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="95">
+        <v>1</v>
+      </c>
+      <c r="D38" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="10">
-        <v>100</v>
-      </c>
-      <c r="G17" s="30">
-        <v>20</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30">
-        <f>F17*G17</f>
-        <v>2000</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="F38" s="22">
+        <v>2</v>
+      </c>
+      <c r="G38" s="31">
+        <v>7100</v>
+      </c>
+      <c r="H38" s="105">
+        <v>2</v>
+      </c>
+      <c r="I38" s="97">
+        <f t="shared" ref="I38:I40" si="2">G38*H38</f>
+        <v>14200</v>
+      </c>
+      <c r="J38" s="45"/>
+      <c r="K38" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="89">
+        <v>1</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="89">
+        <v>1</v>
+      </c>
+      <c r="G39" s="90">
+        <v>11090</v>
+      </c>
+      <c r="H39" s="90">
+        <v>2</v>
+      </c>
+      <c r="I39" s="91">
+        <f t="shared" si="2"/>
+        <v>22180</v>
+      </c>
+      <c r="J39" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" s="92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="98">
+        <v>10</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="99">
+        <v>5</v>
+      </c>
+      <c r="G40" s="6">
+        <v>2280</v>
+      </c>
+      <c r="H40" s="106">
+        <v>10</v>
+      </c>
+      <c r="I40" s="55">
+        <f t="shared" si="2"/>
+        <v>22800</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I41" s="20">
+        <f>SUM(I38:I40)</f>
+        <v>59180</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="60">
+        <f>I41*0.1</f>
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I43" s="61">
+        <f>I41+I42</f>
+        <v>65098</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="D48" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="95">
         <v>1</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D49" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="22">
         <v>2</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2">
-        <v>100</v>
-      </c>
-      <c r="G20" s="4">
-        <v>90</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="22">
-        <f>F20*G20</f>
-        <v>9000</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="5"/>
-      <c r="L20">
-        <v>650</v>
-      </c>
-      <c r="M20">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="112"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4">
-        <v>440</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="22">
-        <f>F21*G21</f>
-        <v>4400</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="5"/>
-      <c r="L21">
-        <f>L20*500</f>
-        <v>325000</v>
-      </c>
-      <c r="M21">
-        <f>M20*10</f>
-        <v>22600</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>300</v>
-      </c>
-      <c r="H22" s="22">
-        <v>10</v>
-      </c>
-      <c r="I22" s="22">
-        <f t="shared" ref="I22:I23" si="2">H22*G22</f>
-        <v>3000</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="115"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1140</v>
-      </c>
-      <c r="H23" s="30">
-        <v>10</v>
-      </c>
-      <c r="I23" s="30">
-        <f t="shared" si="2"/>
-        <v>11400</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="42">
-        <v>1</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="26">
-        <v>50</v>
-      </c>
-      <c r="G28" s="35">
-        <v>100</v>
-      </c>
-      <c r="H28" s="119">
-        <v>50</v>
-      </c>
-      <c r="I28" s="55">
-        <f>G28*H28</f>
-        <v>5000</v>
-      </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="43">
-        <v>2</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="36">
-        <v>1</v>
-      </c>
-      <c r="G29" s="22">
-        <v>1260</v>
-      </c>
-      <c r="H29" s="18">
-        <v>6</v>
-      </c>
-      <c r="I29" s="56">
-        <f>G29*H29</f>
-        <v>7560</v>
-      </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="36">
-        <v>2</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="36">
-        <v>1</v>
-      </c>
-      <c r="G30" s="75">
-        <v>960</v>
-      </c>
-      <c r="H30" s="18">
-        <v>20</v>
-      </c>
-      <c r="I30" s="22">
-        <v>16400</v>
-      </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="43">
-        <v>1</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="36">
-        <v>100</v>
-      </c>
-      <c r="G31" s="22">
-        <v>130</v>
-      </c>
-      <c r="H31" s="18">
-        <v>100</v>
-      </c>
-      <c r="I31" s="56">
-        <f>G31*H31</f>
-        <v>13000</v>
-      </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="93">
-        <v>1</v>
-      </c>
-      <c r="D32" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="96">
-        <v>2</v>
-      </c>
-      <c r="G32" s="97">
-        <v>7100</v>
-      </c>
-      <c r="H32" s="97">
-        <v>2</v>
-      </c>
-      <c r="I32" s="98">
-        <f t="shared" ref="I32:I35" si="3">G32*H32</f>
-        <v>14200</v>
-      </c>
-      <c r="J32" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="K32" s="99" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="93">
-        <v>1</v>
-      </c>
-      <c r="D33" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="96">
-        <v>1</v>
-      </c>
-      <c r="G33" s="97">
-        <v>10080</v>
-      </c>
-      <c r="H33" s="97">
-        <v>2</v>
-      </c>
-      <c r="I33" s="98">
-        <f t="shared" si="3"/>
-        <v>20160</v>
-      </c>
-      <c r="J33" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="K33" s="99" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="36">
-        <v>1</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="36">
-        <v>1</v>
-      </c>
-      <c r="G34" s="22">
-        <v>11090</v>
-      </c>
-      <c r="H34" s="18">
-        <v>2</v>
-      </c>
-      <c r="I34" s="56">
-        <f t="shared" si="3"/>
-        <v>22180</v>
-      </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="43">
-        <v>1</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="36">
-        <v>5</v>
-      </c>
-      <c r="G35" s="22">
-        <v>210</v>
-      </c>
-      <c r="H35" s="18">
-        <v>30</v>
-      </c>
-      <c r="I35" s="56">
-        <f t="shared" si="3"/>
-        <v>6300</v>
-      </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="44">
+      <c r="G49" s="31">
+        <v>13200</v>
+      </c>
+      <c r="H49" s="31">
         <v>4</v>
       </c>
-      <c r="D36" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="27">
-        <v>100</v>
-      </c>
-      <c r="G36" s="30">
-        <v>20</v>
-      </c>
-      <c r="H36" s="118">
-        <v>200</v>
-      </c>
-      <c r="I36" s="59">
-        <f>G36*H36</f>
-        <v>4000</v>
-      </c>
-      <c r="J36" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H37" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="63">
-        <f>SUM(I28:I36)</f>
-        <v>108800</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H38" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="64">
-        <f>I37*0.1</f>
-        <v>10880</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G39" s="17"/>
-      <c r="H39" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="65">
-        <f>I37+I38</f>
-        <v>119680</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="101" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="102">
-        <v>1</v>
-      </c>
-      <c r="D42" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="26">
-        <v>2</v>
-      </c>
-      <c r="G42" s="35">
-        <v>7100</v>
-      </c>
-      <c r="H42" s="119">
-        <v>2</v>
-      </c>
-      <c r="I42" s="104">
-        <f t="shared" ref="I42:I44" si="4">G42*H42</f>
-        <v>14200</v>
-      </c>
-      <c r="J42" s="49"/>
-      <c r="K42" s="51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="96">
-        <v>1</v>
-      </c>
-      <c r="D43" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="96">
-        <v>1</v>
-      </c>
-      <c r="G43" s="97">
-        <v>11090</v>
-      </c>
-      <c r="H43" s="97">
-        <v>2</v>
-      </c>
-      <c r="I43" s="98">
-        <f t="shared" si="4"/>
-        <v>22180</v>
-      </c>
-      <c r="J43" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="K43" s="99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="105">
-        <v>10</v>
-      </c>
-      <c r="D44" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="106">
-        <v>5</v>
-      </c>
-      <c r="G44" s="6">
-        <v>2280</v>
-      </c>
-      <c r="H44" s="120">
-        <v>10</v>
-      </c>
-      <c r="I44" s="59">
-        <f t="shared" si="4"/>
-        <v>22800</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I45" s="24">
-        <f>SUM(I42:I44)</f>
-        <v>59180</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H46" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="I46" s="64">
-        <f>I45*0.1</f>
-        <v>5918</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I47" s="65">
-        <f>I45+I46</f>
-        <v>65098</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="78" t="s">
-        <v>161</v>
-      </c>
+      <c r="I49" s="97">
+        <f t="shared" ref="I49" si="3">G49*H49</f>
+        <v>52800</v>
+      </c>
+      <c r="J49" s="45"/>
+      <c r="K49" s="47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="I50" s="20">
+        <f>SUM(I49:I49)</f>
+        <v>52800</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="60">
+        <f>I50*0.1</f>
+        <v>5280</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="108" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="102">
-        <v>1</v>
-      </c>
-      <c r="D53" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="26">
-        <v>2</v>
-      </c>
-      <c r="G53" s="35">
-        <v>13200</v>
-      </c>
-      <c r="H53" s="35">
-        <v>4</v>
-      </c>
-      <c r="I53" s="104">
-        <f t="shared" ref="I53" si="5">G53*H53</f>
-        <v>52800</v>
-      </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="I54" s="24">
-        <f>SUM(I53:I53)</f>
-        <v>52800</v>
-      </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" s="64">
-        <f>I54*0.1</f>
-        <v>5280</v>
-      </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="I56" s="65">
-        <f>I54+I55</f>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="I52" s="61">
+        <f>I50+I51</f>
         <v>58080</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
+  <mergeCells count="6">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3595,7 +3558,7 @@
         <f>G6/2</f>
         <v>1.1850000000000001</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="70">
         <f>SUM(F7:G7)</f>
         <v>3.12</v>
       </c>
@@ -3654,133 +3617,133 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="44">
         <v>1</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="18">
         <v>1260</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="63" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="27">
         <v>1</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="62">
         <v>960</v>
       </c>
-      <c r="H8" s="68" t="s">
-        <v>79</v>
+      <c r="H8" s="62" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="44">
         <v>1</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="18">
         <v>1050</v>
       </c>
-      <c r="H9" s="54" t="s">
-        <v>78</v>
+      <c r="H9" s="50" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
@@ -4034,57 +3997,57 @@
   <sheetData>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H4">
@@ -4094,20 +4057,20 @@
         <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H5">
@@ -4119,26 +4082,26 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="117" t="s">
+      <c r="B7" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="113" t="s">
         <v>130</v>
       </c>
+      <c r="D7" s="114" t="s">
+        <v>122</v>
+      </c>
       <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H7">
@@ -4148,20 +4111,20 @@
         <v>450</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1">
@@ -4171,26 +4134,26 @@
         <v>790</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="1">
@@ -4200,140 +4163,140 @@
         <v>700</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>137</v>
+        <v>131</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="31" t="s">
+      <c r="E12" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="63">
         <v>1</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="62">
         <v>1240</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68" t="s">
-        <v>127</v>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="48">
         <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>1170</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="77" t="s">
-        <v>135</v>
+      <c r="B14" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+        <v>131</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H18">
@@ -4343,20 +4306,20 @@
         <v>490</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
         <v>107</v>
       </c>
-      <c r="D19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H19">
@@ -4366,26 +4329,26 @@
         <v>680</v>
       </c>
       <c r="M19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="48" t="s">
+      <c r="F20" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H20">
@@ -4395,20 +4358,20 @@
         <v>1990</v>
       </c>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H21">
@@ -4418,54 +4381,54 @@
         <v>620</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="91" t="s">
-        <v>147</v>
+      <c r="B25" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>28</v>
+        <v>140</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="83" t="s">
-        <v>124</v>
+        <v>141</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="76" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transformer" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="MOSFET" sheetId="2" r:id="rId3"/>
     <sheet name="Pipette" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="163">
   <si>
     <t>PN</t>
   </si>
@@ -549,10 +549,6 @@
   </si>
   <si>
     <t>4.2mm</t>
-  </si>
-  <si>
-    <t>053048-0210</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,2-Pin, Dip Right angle_Molex</t>
@@ -636,6 +632,38 @@
   </si>
   <si>
     <t>구매수량</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>53261-0371</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch CON,3-Pin, SMT Right angle_Molex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>53048-0310</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>53048-0210</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.50x5.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>53048-0410</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch CON,4-Pin, Dip Right angle_Molex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.75x5.5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1601,7 +1629,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1821,30 +1849,6 @@
     <xf numFmtId="41" fontId="24" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1878,6 +1882,33 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2106,7 +2137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2141,7 +2172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2352,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2371,45 +2402,45 @@
   <sheetData>
     <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="116" t="s">
+      <c r="I3" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="117" t="s">
+      <c r="J3" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="109" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="111" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -2427,7 +2458,7 @@
       <c r="I4" s="31">
         <v>50</v>
       </c>
-      <c r="J4" s="124">
+      <c r="J4" s="116">
         <v>46</v>
       </c>
       <c r="K4" s="47" t="s">
@@ -2439,7 +2470,7 @@
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="102" t="s">
         <v>78</v>
@@ -2462,7 +2493,7 @@
       <c r="I5" s="18">
         <v>10</v>
       </c>
-      <c r="J5" s="125">
+      <c r="J5" s="117">
         <v>3</v>
       </c>
       <c r="K5" s="49" t="s">
@@ -2494,7 +2525,7 @@
       <c r="I6" s="18">
         <v>6</v>
       </c>
-      <c r="J6" s="125">
+      <c r="J6" s="117">
         <v>2</v>
       </c>
       <c r="K6" s="28" t="s">
@@ -2517,7 +2548,7 @@
       <c r="F7" s="66">
         <v>1</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="112">
         <v>960</v>
       </c>
       <c r="H7" s="18">
@@ -2526,7 +2557,7 @@
       <c r="I7" s="18">
         <v>20</v>
       </c>
-      <c r="J7" s="125">
+      <c r="J7" s="117">
         <v>1</v>
       </c>
       <c r="K7" s="49" t="s">
@@ -2558,7 +2589,7 @@
       <c r="I8" s="18">
         <v>2</v>
       </c>
-      <c r="J8" s="125">
+      <c r="J8" s="117">
         <v>0</v>
       </c>
       <c r="K8" s="49" t="s">
@@ -2588,7 +2619,7 @@
       <c r="I9" s="18">
         <v>2</v>
       </c>
-      <c r="J9" s="125">
+      <c r="J9" s="117">
         <v>0</v>
       </c>
       <c r="K9" s="49" t="s">
@@ -2596,13 +2627,13 @@
       </c>
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="121" t="s">
-        <v>150</v>
+      <c r="B10" s="113" t="s">
+        <v>149</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="114" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="44" t="s">
@@ -2617,14 +2648,14 @@
       <c r="H10" s="18">
         <v>4</v>
       </c>
-      <c r="I10" s="123">
+      <c r="I10" s="115">
         <v>4</v>
       </c>
-      <c r="J10" s="125">
+      <c r="J10" s="117">
         <v>0</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -2652,7 +2683,7 @@
       <c r="I11" s="18">
         <v>100</v>
       </c>
-      <c r="J11" s="125">
+      <c r="J11" s="117">
         <v>89</v>
       </c>
       <c r="K11" s="28" t="s">
@@ -2682,7 +2713,7 @@
       <c r="I12" s="18">
         <v>30</v>
       </c>
-      <c r="J12" s="125">
+      <c r="J12" s="117">
         <v>14</v>
       </c>
       <c r="K12" s="49" t="s">
@@ -2714,7 +2745,7 @@
       <c r="I13" s="26">
         <v>200</v>
       </c>
-      <c r="J13" s="126">
+      <c r="J13" s="118">
         <v>100</v>
       </c>
       <c r="K13" s="17" t="s">
@@ -2759,13 +2790,13 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="119" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2792,9 +2823,9 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="109"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="107"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2821,13 +2852,13 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="119" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2850,9 +2881,9 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="112"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="110"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="10" t="s">
         <v>15</v>
       </c>
@@ -3064,7 +3095,7 @@
         <v>14200</v>
       </c>
       <c r="J28" s="88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K28" s="92" t="s">
         <v>53</v>
@@ -3097,7 +3128,7 @@
         <v>20160</v>
       </c>
       <c r="J29" s="88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K29" s="92" t="s">
         <v>54</v>
@@ -3228,7 +3259,7 @@
     </row>
     <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -3323,7 +3354,7 @@
         <v>22180</v>
       </c>
       <c r="J39" s="88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K39" s="92" t="s">
         <v>52</v>
@@ -3331,7 +3362,7 @@
     </row>
     <row r="40" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="98">
         <v>10</v>
@@ -3357,7 +3388,7 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
@@ -3383,7 +3414,7 @@
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3423,12 +3454,12 @@
         <v>11</v>
       </c>
       <c r="K48" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="95">
         <v>1</v>
@@ -3454,7 +3485,7 @@
       </c>
       <c r="J49" s="45"/>
       <c r="K49" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
@@ -3981,10 +4012,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4082,17 +4113,17 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="125" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="126" t="s">
         <v>122</v>
       </c>
       <c r="E7" t="s">
@@ -4115,9 +4146,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="1" t="s">
         <v>114</v>
       </c>
@@ -4283,7 +4314,7 @@
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -4394,7 +4425,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -4416,19 +4447,86 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>141</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>142</v>
       </c>
       <c r="F26" s="76" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Transformer" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="MOSFET" sheetId="2" r:id="rId3"/>
     <sheet name="Pipette" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -670,7 +670,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
@@ -1883,6 +1883,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1906,9 +1909,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2137,7 +2137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2172,7 +2172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2383,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2790,13 +2790,13 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="120" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2823,9 +2823,9 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="121"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="119"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2852,13 +2852,13 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="120" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2881,9 +2881,9 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="124"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="122"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="10" t="s">
         <v>15</v>
       </c>
@@ -4014,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4117,13 +4117,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="127" t="s">
         <v>122</v>
       </c>
       <c r="E7" t="s">
@@ -4146,9 +4146,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="1" t="s">
         <v>114</v>
       </c>
@@ -4519,7 +4519,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="119" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="46" t="s">

--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Transformer" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="MOSFET" sheetId="2" r:id="rId3"/>
     <sheet name="Pipette" sheetId="4" r:id="rId4"/>
+    <sheet name="0331" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="282">
   <si>
     <t>PN</t>
   </si>
@@ -666,14 +668,438 @@
     <t>6.75x5.5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>EX-936ESD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXSO </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001909039</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX-951</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005688454</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXSO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LedSol 3001 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007193509</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LedSol-100 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007193511</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX-888D(70W)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005688453</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LedSol-200 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007193512</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3474</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber Cleaner</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1561</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1559</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO A1561 클리닝와이어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004702618</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO A1559 스폰지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004704819</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002116124</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P002116123 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18-B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18-3.5K</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18-K</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPPON 18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18N.18G</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO SPPON NOZZLE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004702809</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ic114</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZT52C5V1S</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIODE, ZENER, 5.1V, 0.2W, SOD-323 </t>
+  </si>
+  <si>
+    <t>P007475431</t>
+  </si>
+  <si>
+    <t>LF용 포함 구매</t>
+  </si>
+  <si>
+    <t>Transformer 하네스</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>V_Desc</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>구매 Cost</t>
+  </si>
+  <si>
+    <t>필요수량</t>
+  </si>
+  <si>
+    <t>구매수량</t>
+  </si>
+  <si>
+    <t>구매금액</t>
+  </si>
+  <si>
+    <t>ICBanQ</t>
+  </si>
+  <si>
+    <t>51021-0700</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>1.25mm Pitch Housing, Female, 7-Pin</t>
+  </si>
+  <si>
+    <t>51021-0500</t>
+  </si>
+  <si>
+    <t>1.25mm Pitch Housing, Female, 5-Pin</t>
+  </si>
+  <si>
+    <t>P005634254</t>
+  </si>
+  <si>
+    <t>050058-8000</t>
+  </si>
+  <si>
+    <t>1.25mm Pitch Crimp Terminal, Female, 28-32 AWG</t>
+  </si>
+  <si>
+    <t>양단 케이블 사용</t>
+  </si>
+  <si>
+    <t>09-52-4024</t>
+  </si>
+  <si>
+    <t>3.96mm Pitch Housing, Female, Friction Ramp, 2-Pin</t>
+  </si>
+  <si>
+    <t>P005634496</t>
+  </si>
+  <si>
+    <t>CRIMP TERMINAL 5239용 (3.96mm)</t>
+  </si>
+  <si>
+    <t>P005634542</t>
+  </si>
+  <si>
+    <t>09-50-1021</t>
+  </si>
+  <si>
+    <t>3.96mm Pitch SPOX™ Crimp Housing, Female, with Friction Ramp, 2-Pin</t>
+  </si>
+  <si>
+    <t>P005634535</t>
+  </si>
+  <si>
+    <t>08-70-1031</t>
+  </si>
+  <si>
+    <t>SPOX Crimp Terminal 5194, 18-24 AWG, Brass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P005634546 </t>
+  </si>
+  <si>
+    <t>AWG28</t>
+  </si>
+  <si>
+    <t>50058 양단 1007 케이블</t>
+  </si>
+  <si>
+    <t>50058 양단 케이블 L=100mm, Red</t>
+  </si>
+  <si>
+    <t>50058 양단 케이블 L=100mm, Black</t>
+  </si>
+  <si>
+    <t>GND 하네스</t>
+  </si>
+  <si>
+    <t>NA645</t>
+  </si>
+  <si>
+    <t>라이트컴</t>
+  </si>
+  <si>
+    <t>Coms 컨넥터-DC파워 2.5Ø x 0.7(각형)</t>
+  </si>
+  <si>
+    <t>P004707690</t>
+  </si>
+  <si>
+    <t>3/29 - 견적 요청</t>
+  </si>
+  <si>
+    <t xml:space="preserve">케이블 </t>
+  </si>
+  <si>
+    <t>악어클립 대(검정색)</t>
+  </si>
+  <si>
+    <t>Any Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P007314617 </t>
+  </si>
+  <si>
+    <t>악어클립 대(빨간색)</t>
+  </si>
+  <si>
+    <t>P007314616</t>
+  </si>
+  <si>
+    <t>T1820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coms 터미널(100pcs)/ Ring단자, RVM 1.25-3.5, 빨강, 3.7mm </t>
+  </si>
+  <si>
+    <t>100pcs</t>
+  </si>
+  <si>
+    <t>Pipette Main</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL1007-AWG20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL전선</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P002329495 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P002329190 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩저항 키트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any vender</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001907055</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>JL-0232 적색</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005658758</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHG630DCE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>열풍기(히터건) (GHG630DCE)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOSCH </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007320842</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004704064</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8611L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P004704041 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGINEER SL-04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1119,7 +1545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1473,8 +1899,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1628,8 +2171,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1910,20 +2517,338 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="25" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="30" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="25" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="15" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="25" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="53" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="10" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="69" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="18" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="18" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="21" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="32" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="15" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="31" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="17" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="36" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="36" borderId="32" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="32" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="28" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="36" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="75">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1 2" xfId="56"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2 2" xfId="58"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3 2" xfId="60"/>
     <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4 2" xfId="63"/>
     <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5 2" xfId="65"/>
     <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6 2" xfId="67"/>
     <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1 2" xfId="57"/>
     <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2 2" xfId="59"/>
     <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3 2" xfId="61"/>
     <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4 2" xfId="64"/>
     <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5 2" xfId="66"/>
     <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6 2" xfId="68"/>
     <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
@@ -1940,15 +2865,22 @@
     <cellStyle name="계산" xfId="12" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="메모 2" xfId="45"/>
+    <cellStyle name="메모 2 2" xfId="74"/>
+    <cellStyle name="메모 3" xfId="55"/>
     <cellStyle name="보통" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="쉼표 [0] 2" xfId="47"/>
     <cellStyle name="쉼표 [0] 2 2" xfId="49"/>
+    <cellStyle name="쉼표 [0] 2 2 2" xfId="72"/>
+    <cellStyle name="쉼표 [0] 2 3" xfId="70"/>
     <cellStyle name="쉼표 [0] 3" xfId="48"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="71"/>
     <cellStyle name="쉼표 [0] 4" xfId="44"/>
+    <cellStyle name="쉼표 [0] 4 2" xfId="62"/>
     <cellStyle name="쉼표 [0] 5" xfId="51"/>
+    <cellStyle name="쉼표 [0] 6" xfId="54"/>
     <cellStyle name="연결된 셀" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="10" builtinId="20" customBuiltin="1"/>
@@ -1964,16 +2896,16 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 10" xfId="42"/>
     <cellStyle name="표준 2" xfId="43"/>
+    <cellStyle name="표준 2 2" xfId="69"/>
     <cellStyle name="표준 3" xfId="52"/>
+    <cellStyle name="표준 3 2" xfId="73"/>
+    <cellStyle name="표준 4" xfId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2137,7 +3069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2172,7 +3104,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2383,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4015,7 +4947,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4538,4 +5470,1812 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="87.875" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="95">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
+        <v>129800</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1</v>
+      </c>
+      <c r="I3" s="144"/>
+      <c r="J3" s="97">
+        <f t="shared" ref="J3" si="0">G3*I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="45"/>
+      <c r="L3" s="47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="134">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>275000</v>
+      </c>
+      <c r="H4" s="134">
+        <v>1</v>
+      </c>
+      <c r="I4" s="134"/>
+      <c r="J4" s="115">
+        <f>G4*I4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="134">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>110000</v>
+      </c>
+      <c r="H5" s="134">
+        <v>1</v>
+      </c>
+      <c r="I5" s="134"/>
+      <c r="J5" s="115">
+        <f>G5*I5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="134">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>132000</v>
+      </c>
+      <c r="H6" s="134">
+        <v>1</v>
+      </c>
+      <c r="I6" s="134"/>
+      <c r="J6" s="115">
+        <f>G6*I6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="66">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>140000</v>
+      </c>
+      <c r="H7" s="66">
+        <v>1</v>
+      </c>
+      <c r="I7" s="66">
+        <v>2</v>
+      </c>
+      <c r="J7" s="136">
+        <f>G7*I7</f>
+        <v>280000</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="138" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="139">
+        <v>1</v>
+      </c>
+      <c r="G8" s="141">
+        <v>270000</v>
+      </c>
+      <c r="H8" s="139">
+        <v>1</v>
+      </c>
+      <c r="I8" s="139"/>
+      <c r="J8" s="142">
+        <f>G8*I8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="140"/>
+      <c r="L8" s="143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="145" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="132">
+        <v>1</v>
+      </c>
+      <c r="G9" s="146">
+        <v>12000</v>
+      </c>
+      <c r="H9" s="132">
+        <v>1</v>
+      </c>
+      <c r="I9" s="132"/>
+      <c r="J9" s="97">
+        <f>G9*I9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="147" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="134">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="134">
+        <v>1</v>
+      </c>
+      <c r="I10" s="134"/>
+      <c r="J10" s="115">
+        <f>G10*I10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="135" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="66">
+        <v>1</v>
+      </c>
+      <c r="G11" s="148">
+        <v>6500</v>
+      </c>
+      <c r="H11" s="66">
+        <v>1</v>
+      </c>
+      <c r="I11" s="66">
+        <v>2</v>
+      </c>
+      <c r="J11" s="136">
+        <f>G11*I11</f>
+        <v>13000</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="135" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="66">
+        <v>1</v>
+      </c>
+      <c r="G13" s="148">
+        <v>4000</v>
+      </c>
+      <c r="H13" s="66">
+        <v>1</v>
+      </c>
+      <c r="I13" s="66">
+        <v>2</v>
+      </c>
+      <c r="J13" s="136">
+        <f>G13*I13</f>
+        <v>8000</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="66">
+        <v>1</v>
+      </c>
+      <c r="G14" s="148">
+        <v>4500</v>
+      </c>
+      <c r="H14" s="66">
+        <v>1</v>
+      </c>
+      <c r="I14" s="66">
+        <v>2</v>
+      </c>
+      <c r="J14" s="136">
+        <f>G14*I14</f>
+        <v>9000</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="66">
+        <v>1</v>
+      </c>
+      <c r="G15" s="148">
+        <v>16500</v>
+      </c>
+      <c r="H15" s="66">
+        <v>1</v>
+      </c>
+      <c r="I15" s="66">
+        <v>1</v>
+      </c>
+      <c r="J15" s="136">
+        <f>G15*I15</f>
+        <v>16500</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="137" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="179" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="160" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="169">
+        <v>1</v>
+      </c>
+      <c r="G16" s="157">
+        <v>4100</v>
+      </c>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="156"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="135" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="66">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>9000</v>
+      </c>
+      <c r="H17" s="66">
+        <v>1</v>
+      </c>
+      <c r="I17" s="66">
+        <v>1</v>
+      </c>
+      <c r="J17" s="136">
+        <f>G17*I17</f>
+        <v>9000</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="137" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="135" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="66">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
+        <v>9000</v>
+      </c>
+      <c r="H18" s="66">
+        <v>1</v>
+      </c>
+      <c r="I18" s="66">
+        <v>1</v>
+      </c>
+      <c r="J18" s="136">
+        <f>G18*I18</f>
+        <v>9000</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="137" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="166" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="159" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="158" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="66">
+        <v>1</v>
+      </c>
+      <c r="G19" s="165">
+        <v>180000</v>
+      </c>
+      <c r="H19" s="66">
+        <v>1</v>
+      </c>
+      <c r="I19" s="66">
+        <v>1</v>
+      </c>
+      <c r="J19" s="136">
+        <f>G19*I19</f>
+        <v>180000</v>
+      </c>
+      <c r="K19" s="158"/>
+      <c r="L19" s="162" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="166" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="159" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="158" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="66">
+        <v>1</v>
+      </c>
+      <c r="G20" s="165">
+        <v>1210</v>
+      </c>
+      <c r="H20" s="159">
+        <v>1</v>
+      </c>
+      <c r="I20" s="66">
+        <v>2</v>
+      </c>
+      <c r="J20" s="136">
+        <f>G20*I20</f>
+        <v>2420</v>
+      </c>
+      <c r="K20" s="158"/>
+      <c r="L20" s="162" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="166" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="159" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="158" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="66">
+        <v>1</v>
+      </c>
+      <c r="G21" s="165">
+        <v>101200</v>
+      </c>
+      <c r="H21" s="66">
+        <v>1</v>
+      </c>
+      <c r="I21" s="66">
+        <v>1</v>
+      </c>
+      <c r="J21" s="136">
+        <f>G21*I21</f>
+        <v>101200</v>
+      </c>
+      <c r="K21" s="158"/>
+      <c r="L21" s="162" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="170" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="161"/>
+      <c r="D22" s="247" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="134">
+        <v>1</v>
+      </c>
+      <c r="G22" s="248">
+        <v>40000</v>
+      </c>
+      <c r="H22" s="161"/>
+      <c r="I22" s="247"/>
+      <c r="J22" s="249"/>
+      <c r="K22" s="247"/>
+      <c r="L22" s="250" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="150" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="66">
+        <v>1</v>
+      </c>
+      <c r="G23" s="106">
+        <v>45000</v>
+      </c>
+      <c r="H23" s="66">
+        <v>1</v>
+      </c>
+      <c r="I23" s="66">
+        <v>1</v>
+      </c>
+      <c r="J23" s="136">
+        <f>G23*I23</f>
+        <v>45000</v>
+      </c>
+      <c r="K23" s="151"/>
+      <c r="L23" s="152" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="251"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="251"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="251"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J25" s="20">
+        <f>SUM(J3:J23)</f>
+        <v>673120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="186" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="186" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="191" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="191" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="192" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="164" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="171" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="172" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="134">
+        <v>3</v>
+      </c>
+      <c r="G30" s="4">
+        <v>60</v>
+      </c>
+      <c r="H30" s="134">
+        <v>1</v>
+      </c>
+      <c r="I30" s="134">
+        <v>120</v>
+      </c>
+      <c r="J30" s="115">
+        <f>G30*I30</f>
+        <v>7200</v>
+      </c>
+      <c r="K30" s="45"/>
+      <c r="L30" s="173" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" s="174" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="182" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="183"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="187">
+        <v>10</v>
+      </c>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+    </row>
+    <row r="35" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="175" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="175" t="s">
+        <v>213</v>
+      </c>
+      <c r="H35" s="177" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="177" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35" s="177" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="197" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="200" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="200" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="198">
+        <v>1</v>
+      </c>
+      <c r="G36" s="201">
+        <v>210</v>
+      </c>
+      <c r="H36" s="198">
+        <v>50</v>
+      </c>
+      <c r="I36" s="198">
+        <v>50</v>
+      </c>
+      <c r="J36" s="201">
+        <v>10500</v>
+      </c>
+      <c r="K36" s="45"/>
+      <c r="L36" s="176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="204" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="206" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="206" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="185">
+        <v>1</v>
+      </c>
+      <c r="G37" s="185">
+        <v>210</v>
+      </c>
+      <c r="H37" s="185">
+        <v>10</v>
+      </c>
+      <c r="I37" s="185">
+        <v>10</v>
+      </c>
+      <c r="J37" s="188">
+        <v>2100</v>
+      </c>
+      <c r="K37" s="155"/>
+      <c r="L37" s="211" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="208"/>
+      <c r="D38" s="208" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="209">
+        <v>2</v>
+      </c>
+      <c r="G38" s="217">
+        <v>80</v>
+      </c>
+      <c r="H38" s="209">
+        <v>100</v>
+      </c>
+      <c r="I38" s="209">
+        <v>100</v>
+      </c>
+      <c r="J38" s="210">
+        <v>4000</v>
+      </c>
+      <c r="K38" s="46"/>
+      <c r="L38" s="213" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="181"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="194"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="193"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="193"/>
+    </row>
+    <row r="40" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="196" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="189"/>
+      <c r="D40" s="194"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="193"/>
+    </row>
+    <row r="41" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="154"/>
+      <c r="F41" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="186" t="s">
+        <v>213</v>
+      </c>
+      <c r="H41" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="191" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="191" t="s">
+        <v>217</v>
+      </c>
+      <c r="K41" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="192" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="245" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="200" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="200" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="198">
+        <v>1</v>
+      </c>
+      <c r="G42" s="219">
+        <v>270</v>
+      </c>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198">
+        <v>20</v>
+      </c>
+      <c r="J42" s="201">
+        <v>0</v>
+      </c>
+      <c r="K42" s="45"/>
+      <c r="L42" s="228" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="241" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="185" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="185">
+        <v>1</v>
+      </c>
+      <c r="G43" s="215">
+        <v>200</v>
+      </c>
+      <c r="H43" s="185">
+        <v>10</v>
+      </c>
+      <c r="I43" s="185">
+        <v>10</v>
+      </c>
+      <c r="J43" s="188">
+        <v>2000</v>
+      </c>
+      <c r="K43" s="155"/>
+      <c r="L43" s="211" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="153" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="209" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="208" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="209">
+        <v>1</v>
+      </c>
+      <c r="G44" s="217">
+        <v>200</v>
+      </c>
+      <c r="H44" s="209">
+        <v>10</v>
+      </c>
+      <c r="I44" s="209">
+        <v>10</v>
+      </c>
+      <c r="J44" s="210">
+        <v>2000</v>
+      </c>
+      <c r="K44" s="46"/>
+      <c r="L44" s="213" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J45" s="9">
+        <f>SUM(J29:J44)</f>
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J47" s="20">
+        <f>J25+J45</f>
+        <v>700920</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J48" s="163">
+        <f>J47*0.1</f>
+        <v>70092</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J49" s="168">
+        <f>SUM(J47:J48)</f>
+        <v>771012</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="182" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="183"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="187">
+        <v>10</v>
+      </c>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="190">
+        <v>43172</v>
+      </c>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+    </row>
+    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="184" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="186" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="186" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="191" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="191" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="191" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" s="191" t="s">
+        <v>217</v>
+      </c>
+      <c r="M8" s="192" t="s">
+        <v>218</v>
+      </c>
+      <c r="N8" s="181"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="197">
+        <v>1</v>
+      </c>
+      <c r="C9" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="198" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="200" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="198">
+        <v>1</v>
+      </c>
+      <c r="G9" s="201">
+        <v>230</v>
+      </c>
+      <c r="H9" s="198">
+        <v>230</v>
+      </c>
+      <c r="I9" s="202">
+        <v>10</v>
+      </c>
+      <c r="J9" s="198">
+        <v>10</v>
+      </c>
+      <c r="K9" s="198">
+        <v>20</v>
+      </c>
+      <c r="L9" s="236">
+        <v>4600</v>
+      </c>
+      <c r="M9" s="203"/>
+      <c r="N9" s="181"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="222">
+        <v>2</v>
+      </c>
+      <c r="C10" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="206" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="225" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="223">
+        <v>1</v>
+      </c>
+      <c r="G10" s="226">
+        <v>210</v>
+      </c>
+      <c r="H10" s="223">
+        <v>210</v>
+      </c>
+      <c r="I10" s="227">
+        <v>10</v>
+      </c>
+      <c r="J10" s="223">
+        <v>50</v>
+      </c>
+      <c r="K10" s="223">
+        <v>50</v>
+      </c>
+      <c r="L10" s="237">
+        <v>10500</v>
+      </c>
+      <c r="M10" s="211" t="s">
+        <v>224</v>
+      </c>
+      <c r="N10" s="181"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="204">
+        <v>3</v>
+      </c>
+      <c r="C11" s="214" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="206" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="206" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="206">
+        <v>12</v>
+      </c>
+      <c r="G11" s="215">
+        <v>480</v>
+      </c>
+      <c r="H11" s="206">
+        <v>40</v>
+      </c>
+      <c r="I11" s="216">
+        <v>120</v>
+      </c>
+      <c r="J11" s="206">
+        <v>100</v>
+      </c>
+      <c r="K11" s="206"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="181" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="229">
+        <v>4</v>
+      </c>
+      <c r="C12" s="230" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="231" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="232" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="232">
+        <v>1</v>
+      </c>
+      <c r="G12" s="233">
+        <v>40</v>
+      </c>
+      <c r="H12" s="234">
+        <v>40</v>
+      </c>
+      <c r="I12" s="235">
+        <v>10</v>
+      </c>
+      <c r="J12" s="232">
+        <v>100</v>
+      </c>
+      <c r="K12" s="232">
+        <v>100</v>
+      </c>
+      <c r="L12" s="239">
+        <v>4000</v>
+      </c>
+      <c r="M12" s="212" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="181"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="229">
+        <v>5</v>
+      </c>
+      <c r="C13" s="230"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="232" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="232">
+        <v>2</v>
+      </c>
+      <c r="G13" s="233">
+        <v>80</v>
+      </c>
+      <c r="H13" s="234">
+        <v>40</v>
+      </c>
+      <c r="I13" s="235">
+        <v>10</v>
+      </c>
+      <c r="J13" s="232">
+        <v>100</v>
+      </c>
+      <c r="K13" s="232">
+        <v>100</v>
+      </c>
+      <c r="L13" s="239">
+        <v>4000</v>
+      </c>
+      <c r="M13" s="212" t="s">
+        <v>232</v>
+      </c>
+      <c r="N13" s="181"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="222">
+        <v>6</v>
+      </c>
+      <c r="C14" s="224" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="206" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="225" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="223">
+        <v>1</v>
+      </c>
+      <c r="G14" s="223">
+        <v>210</v>
+      </c>
+      <c r="H14" s="223">
+        <v>210</v>
+      </c>
+      <c r="I14" s="227">
+        <v>10</v>
+      </c>
+      <c r="J14" s="223">
+        <v>10</v>
+      </c>
+      <c r="K14" s="223">
+        <v>10</v>
+      </c>
+      <c r="L14" s="237">
+        <v>2100</v>
+      </c>
+      <c r="M14" s="211" t="s">
+        <v>235</v>
+      </c>
+      <c r="N14" s="181"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="222">
+        <v>7</v>
+      </c>
+      <c r="C15" s="224" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="206"/>
+      <c r="E15" s="225" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="223">
+        <v>2</v>
+      </c>
+      <c r="G15" s="215">
+        <v>80</v>
+      </c>
+      <c r="H15" s="223">
+        <v>40</v>
+      </c>
+      <c r="I15" s="227">
+        <v>10</v>
+      </c>
+      <c r="J15" s="223">
+        <v>100</v>
+      </c>
+      <c r="K15" s="223">
+        <v>100</v>
+      </c>
+      <c r="L15" s="237">
+        <v>4000</v>
+      </c>
+      <c r="M15" s="211" t="s">
+        <v>238</v>
+      </c>
+      <c r="N15" s="181"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="180">
+        <v>8</v>
+      </c>
+      <c r="C16" s="214"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="206"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="212"/>
+      <c r="N16" s="181" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="180"/>
+      <c r="C17" s="206" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="206" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="206" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="206">
+        <v>2</v>
+      </c>
+      <c r="G17" s="215">
+        <v>260</v>
+      </c>
+      <c r="H17" s="215">
+        <v>130</v>
+      </c>
+      <c r="I17" s="216">
+        <v>20</v>
+      </c>
+      <c r="J17" s="206">
+        <v>300</v>
+      </c>
+      <c r="K17" s="206">
+        <v>300</v>
+      </c>
+      <c r="L17" s="238"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="181"/>
+    </row>
+    <row r="18" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="167"/>
+      <c r="C18" s="208" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="208" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="208" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="208">
+        <v>8</v>
+      </c>
+      <c r="G18" s="217">
+        <v>1040</v>
+      </c>
+      <c r="H18" s="217">
+        <v>130</v>
+      </c>
+      <c r="I18" s="218">
+        <v>80</v>
+      </c>
+      <c r="J18" s="208">
+        <v>300</v>
+      </c>
+      <c r="K18" s="208">
+        <v>300</v>
+      </c>
+      <c r="L18" s="240">
+        <v>39000</v>
+      </c>
+      <c r="M18" s="242"/>
+      <c r="N18" s="181"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="181"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="193"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+    </row>
+    <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="196" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="189"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="193"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+    </row>
+    <row r="21" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="184" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="186" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="186" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="191" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="191" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="191" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" s="191" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="192" t="s">
+        <v>218</v>
+      </c>
+      <c r="N21" s="181"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="197">
+        <v>1</v>
+      </c>
+      <c r="C22" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="200" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="200" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="198">
+        <v>1</v>
+      </c>
+      <c r="G22" s="219">
+        <v>270</v>
+      </c>
+      <c r="H22" s="198"/>
+      <c r="I22" s="198">
+        <v>20</v>
+      </c>
+      <c r="J22" s="198"/>
+      <c r="K22" s="198">
+        <v>20</v>
+      </c>
+      <c r="L22" s="236">
+        <v>0</v>
+      </c>
+      <c r="M22" s="228" t="s">
+        <v>247</v>
+      </c>
+      <c r="N22" s="181" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="204">
+        <v>2</v>
+      </c>
+      <c r="C23" s="205"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="206" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="243"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="181"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="180">
+        <v>3</v>
+      </c>
+      <c r="C24" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="185" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="185">
+        <v>1</v>
+      </c>
+      <c r="G24" s="215">
+        <v>200</v>
+      </c>
+      <c r="H24" s="188">
+        <v>200</v>
+      </c>
+      <c r="I24" s="185">
+        <v>10</v>
+      </c>
+      <c r="J24" s="185">
+        <v>10</v>
+      </c>
+      <c r="K24" s="185">
+        <v>10</v>
+      </c>
+      <c r="L24" s="237">
+        <v>2000</v>
+      </c>
+      <c r="M24" s="211" t="s">
+        <v>252</v>
+      </c>
+      <c r="N24" s="181"/>
+    </row>
+    <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="167"/>
+      <c r="C25" s="208" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="209" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="208" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="209">
+        <v>1</v>
+      </c>
+      <c r="G25" s="217">
+        <v>200</v>
+      </c>
+      <c r="H25" s="210">
+        <v>200</v>
+      </c>
+      <c r="I25" s="209">
+        <v>10</v>
+      </c>
+      <c r="J25" s="209">
+        <v>10</v>
+      </c>
+      <c r="K25" s="209">
+        <v>10</v>
+      </c>
+      <c r="L25" s="244">
+        <v>2000</v>
+      </c>
+      <c r="M25" s="213" t="s">
+        <v>254</v>
+      </c>
+      <c r="N25" s="181"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="181"/>
+      <c r="C26" s="183" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="220" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="220" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="221">
+        <v>2200</v>
+      </c>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181" t="s">
+        <v>257</v>
+      </c>
+      <c r="N26" s="181"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B16:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Transformer" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="MOSFET" sheetId="2" r:id="rId3"/>
-    <sheet name="Pipette" sheetId="4" r:id="rId4"/>
-    <sheet name="0331" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="개발비" sheetId="7" r:id="rId1"/>
+    <sheet name="Transformer" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MOSFET" sheetId="2" r:id="rId4"/>
+    <sheet name="Pipette" sheetId="4" r:id="rId5"/>
+    <sheet name="0331" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="299">
   <si>
     <t>PN</t>
   </si>
@@ -34,18 +35,18 @@
   </si>
   <si>
     <t>220uF/16V ALUMINUM CAPACITORS 6.3pi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SAMYOUNG</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Agency</t>
@@ -58,30 +59,30 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디바이스마트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SMD E/C 16V 220uF (85℃)/6.3Ø x8mm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -106,42 +107,42 @@
   </si>
   <si>
     <t>53261-0471</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53261-0371</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 3-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P_value</t>
@@ -151,25 +152,25 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Power MOSFET 40V, Single N-Channel, 101A DPAK</t>
@@ -179,354 +180,354 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NTMFS5C604NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NTMFS5C468NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 10.3 m , 37 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>60 V, 1.2 m , 287 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>100 V, 16 m , 42 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>infineon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>30 V, 0.9m , 47 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 7.8 m , 50 A,Single N−Channel, DPAK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C673NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>60 V, 9.2 m , 50 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007567159</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ON Semiconductor </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 2.8 m , 110 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>KEMET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007223445</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>053048-0410</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,4-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P005634295 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,3-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1300C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P000394667 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P000394663 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1310TB</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P006911086 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1310MC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SDS5050TCU-S-AP-A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> (주)디웰전자 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P002343866</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5.0x5.0x1.6 size, RGB full coler, SMD파워 3색 LED </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Lite-On Inc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P008219901</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Avago</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P000725384 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LTST-C19HE1WT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LTST-C19FD1WT </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P001586603 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LED RGB DIFFUSED 0606 SMD - 0.35T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LED OGB DIFFUSED 0608 SMD - 0.55T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3 color type LED 6-pin, TOP View, R745mcd, G1600mcd, B380mcd</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>3.4x2.8</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2.00mm</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>LTSN-N213EGBW</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Lite-On Inc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3.0x12.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3.5x12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3.5mm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13A-1x</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13B-11T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P006914254</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13C-11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P006913975</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD Right Angle, key 2x0.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, DIP Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, DIP Right Angle, key 2x0.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, Straight DIP, key 2x0.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CMS-2314A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DP3T slide Switch, SMD J-hook Right Angle, key 4x1.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD J-hook Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Nidec Copal Electronics Corporation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Nidec Copal Electronics Corporation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5.4x15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P_size</t>
@@ -536,57 +537,57 @@
   </si>
   <si>
     <t>12512WS-02B</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>YEONHO</t>
   </si>
   <si>
     <t>CON 2-pin, Throgh hole  type</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>5.0x3.6</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>4.2mm</t>
   </si>
   <si>
     <t>1.25mm Pitch CON,2-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>4.25x5.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Status LED</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Slide Key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GAS CON</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -614,227 +615,227 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>재고-2/24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53261-0371</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,3-Pin, SMT Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53048-0310</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53048-0210</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5.50x5.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53048-0410</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,4-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>6.75x5.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EX-936ESD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> EXSO </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P001909039</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FX-951</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005688454</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EXSO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol 3001 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007193509</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-100 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007193511</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FX-888D(70W)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005688453</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-200 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007193512</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>B3474</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Rubber Cleaner</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>A1561</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>A1559</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1561 클리닝와이어</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P004702618</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1559 스폰지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P004704819</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P002116124</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002116123 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>T18-B</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>T18-3.5K</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>T18-K</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SPPON 18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>18N.18G</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO SPPON NOZZLE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P004702809</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ic114</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BZT52C5V1S</t>
@@ -997,116 +998,195 @@
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UL1007-AWG20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UL전선</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329495 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329190 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>칩저항 키트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P001907055</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>JL-0232 적색</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005658758</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GHG630DCE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>열풍기(히터건) (GHG630DCE)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> BOSCH </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007320842</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P004704064</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8611L</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P004704041 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch Program</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업기간</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day[20/Month]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour[3/Day]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시급</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중치</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Gen MCU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Control MCU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 작업</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 작업</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour[3.5/Day]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette 2차</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2019,224 +2099,224 @@
   </borders>
   <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -2248,13 +2328,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2268,7 +2348,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2277,7 +2357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2295,32 +2375,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2335,26 +2415,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2368,7 +2448,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2378,20 +2458,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2403,16 +2483,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2425,13 +2505,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2444,89 +2524,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="25" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="25" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2558,7 +2614,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="53" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="53" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -2575,243 +2631,237 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="30" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="25" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="30" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="25" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="15" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="25" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="15" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="25" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="53" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="53" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="10" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="10" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="69" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="53" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="69" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="18" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="18" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="21" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="18" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="18" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="21" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="54" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="32" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="15" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="31" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="32" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="15" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="31" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="17" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="36" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="36" borderId="32" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="32" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="28" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="36" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="36" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="36" borderId="32" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="32" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="28" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="36" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="29" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="29" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2823,6 +2873,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3313,6 +3444,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:O34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="9"/>
+      <c r="G6" s="255"/>
+    </row>
+    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="257" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="258"/>
+      <c r="D9" s="259" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="258" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="258" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" s="260" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="256" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="261"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="263" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="263" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="263" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="262"/>
+      <c r="H10" s="262"/>
+      <c r="I10" s="264"/>
+    </row>
+    <row r="11" spans="2:14" s="256" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="279" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="280"/>
+      <c r="D11" s="266">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="33">
+        <f>D11*20</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="33">
+        <f>E11*3</f>
+        <v>15</v>
+      </c>
+      <c r="G11" s="267">
+        <v>30000</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="268">
+        <f>F11*G11*H11</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="257" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="265" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="266">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="33">
+        <f>D12*20</f>
+        <v>30</v>
+      </c>
+      <c r="F12" s="33">
+        <f>E12*3</f>
+        <v>90</v>
+      </c>
+      <c r="G12" s="267">
+        <v>30000</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="268">
+        <f>F12*G12*H12</f>
+        <v>2160000</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="20">
+        <v>4300000</v>
+      </c>
+      <c r="M12" s="20">
+        <f>L12/20</f>
+        <v>215000</v>
+      </c>
+      <c r="N12" s="20">
+        <f>M12/8</f>
+        <v>26875</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="269"/>
+      <c r="C13" s="270" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="29">
+        <f>D13*20</f>
+        <v>10</v>
+      </c>
+      <c r="F13" s="29">
+        <f>E13*3</f>
+        <v>30</v>
+      </c>
+      <c r="G13" s="4">
+        <v>30000</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="272">
+        <f>F13*G13*H13</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="261"/>
+      <c r="C14" s="273" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="274">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14*20</f>
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <f>E14*3</f>
+        <v>60</v>
+      </c>
+      <c r="G14" s="6">
+        <v>30000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="275">
+        <f>F14*G14*H14</f>
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="257" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="265" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="266">
+        <v>4</v>
+      </c>
+      <c r="E15" s="33">
+        <f>D15*20</f>
+        <v>80</v>
+      </c>
+      <c r="F15" s="33">
+        <f>E15*3</f>
+        <v>240</v>
+      </c>
+      <c r="G15" s="267">
+        <v>30000</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="268">
+        <f>F15*G15*H15</f>
+        <v>5760000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="269"/>
+      <c r="C16" s="270" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="271">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <f>D16*20</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="29">
+        <f>E16*3</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>30000</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="272">
+        <f>F16*G16*H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="261"/>
+      <c r="C17" s="273" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="274">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D17*20</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <f>E17*3</f>
+        <v>30</v>
+      </c>
+      <c r="G17" s="6">
+        <v>30000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I17" s="275">
+        <f>F17*G17*H17</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G19" s="20"/>
+      <c r="L19">
+        <v>22000</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19" s="9">
+        <f>L19*M19*N19</f>
+        <v>3520000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="257" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="258" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" s="258" t="s">
+        <v>288</v>
+      </c>
+      <c r="I22" s="260" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="261"/>
+      <c r="C23" s="262"/>
+      <c r="D23" s="263" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="263" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="263" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23" s="262"/>
+      <c r="H23" s="262"/>
+      <c r="I23" s="264"/>
+    </row>
+    <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="279" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="280"/>
+      <c r="D24" s="276">
+        <v>1</v>
+      </c>
+      <c r="E24" s="146">
+        <f>D24*20</f>
+        <v>20</v>
+      </c>
+      <c r="F24" s="146">
+        <f>E24*3.5</f>
+        <v>70</v>
+      </c>
+      <c r="G24" s="277">
+        <v>30000</v>
+      </c>
+      <c r="H24" s="146">
+        <v>1</v>
+      </c>
+      <c r="I24" s="278">
+        <f>F24*G24*H24</f>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="257" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="259"/>
+      <c r="F27" s="259"/>
+      <c r="G27" s="258" t="s">
+        <v>287</v>
+      </c>
+      <c r="H27" s="258" t="s">
+        <v>288</v>
+      </c>
+      <c r="I27" s="260" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="261"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="263" t="s">
+        <v>284</v>
+      </c>
+      <c r="E28" s="263" t="s">
+        <v>285</v>
+      </c>
+      <c r="F28" s="263" t="s">
+        <v>286</v>
+      </c>
+      <c r="G28" s="262"/>
+      <c r="H28" s="262"/>
+      <c r="I28" s="264"/>
+    </row>
+    <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="279" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="280"/>
+      <c r="D29" s="276">
+        <v>3</v>
+      </c>
+      <c r="E29" s="146">
+        <f>D29*20</f>
+        <v>60</v>
+      </c>
+      <c r="F29" s="146">
+        <f>E29*3</f>
+        <v>180</v>
+      </c>
+      <c r="G29" s="277">
+        <v>22000</v>
+      </c>
+      <c r="H29" s="146">
+        <v>1</v>
+      </c>
+      <c r="I29" s="278">
+        <f>F29*G29*H29</f>
+        <v>3960000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I32" s="20">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="254">
+        <f>I32/I33</f>
+        <v>22222.222222222223</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3722,13 +4311,13 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="244" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -3755,9 +4344,9 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="122"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="120"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="8" t="s">
         <v>15</v>
       </c>
@@ -3784,13 +4373,13 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="244" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -3813,9 +4402,9 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="125"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="123"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="247"/>
       <c r="E19" s="10" t="s">
         <v>15</v>
       </c>
@@ -4474,13 +5063,13 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B18:B19"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:H15"/>
   <sheetViews>
@@ -4556,13 +5145,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P37"/>
   <sheetViews>
@@ -4937,12 +5526,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
@@ -5049,13 +5638,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="250" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="251" t="s">
         <v>122</v>
       </c>
       <c r="E7" t="s">
@@ -5078,9 +5667,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="250"/>
+      <c r="C8" s="250"/>
+      <c r="D8" s="251"/>
       <c r="E8" s="1" t="s">
         <v>114</v>
       </c>
@@ -5467,17 +6056,17 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5497,7 +6086,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="122" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="108" t="s">
@@ -5509,7 +6098,7 @@
       <c r="E2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="123" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="108" t="s">
@@ -5532,13 +6121,13 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="121" t="s">
         <v>165</v>
       </c>
       <c r="E3" s="45" t="s">
@@ -5553,7 +6142,7 @@
       <c r="H3" s="22">
         <v>1</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="136"/>
       <c r="J3" s="97">
         <f t="shared" ref="J3" si="0">G3*I3</f>
         <v>0</v>
@@ -5564,10 +6153,10 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="126" t="s">
         <v>170</v>
       </c>
       <c r="D4" s="29" t="s">
@@ -5576,18 +6165,18 @@
       <c r="E4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="126">
         <v>1</v>
       </c>
       <c r="G4" s="4">
         <v>275000</v>
       </c>
-      <c r="H4" s="134">
-        <v>1</v>
-      </c>
-      <c r="I4" s="134"/>
+      <c r="H4" s="126">
+        <v>1</v>
+      </c>
+      <c r="I4" s="126"/>
       <c r="J4" s="115">
-        <f>G4*I4</f>
+        <f t="shared" ref="J4:J11" si="1">G4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="29"/>
@@ -5596,10 +6185,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="126" t="s">
         <v>170</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -5608,18 +6197,18 @@
       <c r="E5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="134">
+      <c r="F5" s="126">
         <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>110000</v>
       </c>
-      <c r="H5" s="134">
-        <v>1</v>
-      </c>
-      <c r="I5" s="134"/>
+      <c r="H5" s="126">
+        <v>1</v>
+      </c>
+      <c r="I5" s="126"/>
       <c r="J5" s="115">
-        <f>G5*I5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="29"/>
@@ -5628,7 +6217,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="125" t="s">
         <v>180</v>
       </c>
       <c r="C6" s="29"/>
@@ -5638,18 +6227,18 @@
       <c r="E6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="126">
         <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>132000</v>
       </c>
-      <c r="H6" s="134">
-        <v>1</v>
-      </c>
-      <c r="I6" s="134"/>
+      <c r="H6" s="126">
+        <v>1</v>
+      </c>
+      <c r="I6" s="126"/>
       <c r="J6" s="115">
-        <f>G6*I6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="29"/>
@@ -5658,7 +6247,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="127" t="s">
         <v>177</v>
       </c>
       <c r="C7" s="66" t="s">
@@ -5682,52 +6271,52 @@
       <c r="I7" s="66">
         <v>2</v>
       </c>
-      <c r="J7" s="136">
-        <f>G7*I7</f>
+      <c r="J7" s="128">
+        <f t="shared" si="1"/>
         <v>280000</v>
       </c>
       <c r="K7" s="27"/>
-      <c r="L7" s="137" t="s">
+      <c r="L7" s="129" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="139">
-        <v>1</v>
-      </c>
-      <c r="G8" s="141">
+      <c r="F8" s="131">
+        <v>1</v>
+      </c>
+      <c r="G8" s="133">
         <v>270000</v>
       </c>
-      <c r="H8" s="139">
-        <v>1</v>
-      </c>
-      <c r="I8" s="139"/>
-      <c r="J8" s="142">
-        <f>G8*I8</f>
+      <c r="H8" s="131">
+        <v>1</v>
+      </c>
+      <c r="I8" s="131"/>
+      <c r="J8" s="134">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="143" t="s">
+      <c r="K8" s="132"/>
+      <c r="L8" s="135" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="124" t="s">
         <v>167</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -5736,30 +6325,30 @@
       <c r="E9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="132">
-        <v>1</v>
-      </c>
-      <c r="G9" s="146">
+      <c r="F9" s="124">
+        <v>1</v>
+      </c>
+      <c r="G9" s="138">
         <v>12000</v>
       </c>
-      <c r="H9" s="132">
-        <v>1</v>
-      </c>
-      <c r="I9" s="132"/>
+      <c r="H9" s="124">
+        <v>1</v>
+      </c>
+      <c r="I9" s="124"/>
       <c r="J9" s="97">
-        <f>G9*I9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="33"/>
-      <c r="L9" s="147" t="s">
+      <c r="L9" s="139" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="126" t="s">
         <v>167</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -5768,23 +6357,23 @@
       <c r="E10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="126">
         <v>1</v>
       </c>
       <c r="G10" s="29"/>
-      <c r="H10" s="134">
-        <v>1</v>
-      </c>
-      <c r="I10" s="134"/>
+      <c r="H10" s="126">
+        <v>1</v>
+      </c>
+      <c r="I10" s="126"/>
       <c r="J10" s="115">
-        <f>G10*I10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="28"/>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="127" t="s">
         <v>196</v>
       </c>
       <c r="C11" s="66" t="s">
@@ -5799,7 +6388,7 @@
       <c r="F11" s="66">
         <v>1</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="140">
         <v>6500</v>
       </c>
       <c r="H11" s="66">
@@ -5808,20 +6397,20 @@
       <c r="I11" s="66">
         <v>2</v>
       </c>
-      <c r="J11" s="136">
-        <f>G11*I11</f>
+      <c r="J11" s="128">
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="K11" s="27"/>
-      <c r="L11" s="137" t="s">
+      <c r="L11" s="129" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="126" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="44" t="s">
@@ -5837,7 +6426,7 @@
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="127" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="66" t="s">
@@ -5852,7 +6441,7 @@
       <c r="F13" s="66">
         <v>1</v>
       </c>
-      <c r="G13" s="148">
+      <c r="G13" s="140">
         <v>4000</v>
       </c>
       <c r="H13" s="66">
@@ -5861,17 +6450,17 @@
       <c r="I13" s="66">
         <v>2</v>
       </c>
-      <c r="J13" s="136">
+      <c r="J13" s="128">
         <f>G13*I13</f>
         <v>8000</v>
       </c>
       <c r="K13" s="27"/>
-      <c r="L13" s="137" t="s">
+      <c r="L13" s="129" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="127" t="s">
         <v>187</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -5886,7 +6475,7 @@
       <c r="F14" s="66">
         <v>1</v>
       </c>
-      <c r="G14" s="148">
+      <c r="G14" s="140">
         <v>4500</v>
       </c>
       <c r="H14" s="66">
@@ -5895,17 +6484,17 @@
       <c r="I14" s="66">
         <v>2</v>
       </c>
-      <c r="J14" s="136">
+      <c r="J14" s="128">
         <f>G14*I14</f>
         <v>9000</v>
       </c>
       <c r="K14" s="27"/>
-      <c r="L14" s="137" t="s">
+      <c r="L14" s="129" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="127" t="s">
         <v>200</v>
       </c>
       <c r="C15" s="66" t="s">
@@ -5920,7 +6509,7 @@
       <c r="F15" s="66">
         <v>1</v>
       </c>
-      <c r="G15" s="148">
+      <c r="G15" s="140">
         <v>16500</v>
       </c>
       <c r="H15" s="66">
@@ -5929,42 +6518,42 @@
       <c r="I15" s="66">
         <v>1</v>
       </c>
-      <c r="J15" s="136">
+      <c r="J15" s="128">
         <f>G15*I15</f>
         <v>16500</v>
       </c>
       <c r="K15" s="27"/>
-      <c r="L15" s="137" t="s">
+      <c r="L15" s="129" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="170" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="169" t="s">
+      <c r="C16" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="152" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="169">
-        <v>1</v>
-      </c>
-      <c r="G16" s="157">
+      <c r="F16" s="160">
+        <v>1</v>
+      </c>
+      <c r="G16" s="149">
         <v>4100</v>
       </c>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="156"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="148"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="127" t="s">
         <v>259</v>
       </c>
       <c r="C17" s="66" t="s">
@@ -5988,17 +6577,17 @@
       <c r="I17" s="66">
         <v>1</v>
       </c>
-      <c r="J17" s="136">
+      <c r="J17" s="128">
         <f>G17*I17</f>
         <v>9000</v>
       </c>
       <c r="K17" s="27"/>
-      <c r="L17" s="137" t="s">
+      <c r="L17" s="129" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="127" t="s">
         <v>259</v>
       </c>
       <c r="C18" s="66" t="s">
@@ -6022,23 +6611,23 @@
       <c r="I18" s="66">
         <v>1</v>
       </c>
-      <c r="J18" s="136">
+      <c r="J18" s="128">
         <f>G18*I18</f>
         <v>9000</v>
       </c>
       <c r="K18" s="27"/>
-      <c r="L18" s="137" t="s">
+      <c r="L18" s="129" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="158" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="159" t="s">
+      <c r="C19" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="150" t="s">
         <v>266</v>
       </c>
       <c r="E19" s="27" t="s">
@@ -6047,7 +6636,7 @@
       <c r="F19" s="66">
         <v>1</v>
       </c>
-      <c r="G19" s="165">
+      <c r="G19" s="157">
         <v>180000</v>
       </c>
       <c r="H19" s="66">
@@ -6056,23 +6645,23 @@
       <c r="I19" s="66">
         <v>1</v>
       </c>
-      <c r="J19" s="136">
+      <c r="J19" s="128">
         <f>G19*I19</f>
         <v>180000</v>
       </c>
-      <c r="K19" s="158"/>
-      <c r="L19" s="162" t="s">
+      <c r="K19" s="150"/>
+      <c r="L19" s="154" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="166" t="s">
+      <c r="B20" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="150" t="s">
         <v>269</v>
       </c>
       <c r="E20" s="27" t="s">
@@ -6081,32 +6670,32 @@
       <c r="F20" s="66">
         <v>1</v>
       </c>
-      <c r="G20" s="165">
+      <c r="G20" s="157">
         <v>1210</v>
       </c>
-      <c r="H20" s="159">
+      <c r="H20" s="151">
         <v>1</v>
       </c>
       <c r="I20" s="66">
         <v>2</v>
       </c>
-      <c r="J20" s="136">
+      <c r="J20" s="128">
         <f>G20*I20</f>
         <v>2420</v>
       </c>
-      <c r="K20" s="158"/>
-      <c r="L20" s="162" t="s">
+      <c r="K20" s="150"/>
+      <c r="L20" s="154" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="158" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="150" t="s">
         <v>273</v>
       </c>
       <c r="E21" s="27" t="s">
@@ -6115,7 +6704,7 @@
       <c r="F21" s="66">
         <v>1</v>
       </c>
-      <c r="G21" s="165">
+      <c r="G21" s="157">
         <v>101200</v>
       </c>
       <c r="H21" s="66">
@@ -6124,46 +6713,46 @@
       <c r="I21" s="66">
         <v>1</v>
       </c>
-      <c r="J21" s="136">
+      <c r="J21" s="128">
         <f>G21*I21</f>
         <v>101200</v>
       </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="162" t="s">
+      <c r="K21" s="150"/>
+      <c r="L21" s="154" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="161" t="s">
         <v>280</v>
       </c>
-      <c r="C22" s="161"/>
-      <c r="D22" s="247" t="s">
+      <c r="C22" s="153"/>
+      <c r="D22" s="237" t="s">
         <v>279</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="134">
-        <v>1</v>
-      </c>
-      <c r="G22" s="248">
+      <c r="F22" s="126">
+        <v>1</v>
+      </c>
+      <c r="G22" s="238">
         <v>40000</v>
       </c>
-      <c r="H22" s="161"/>
-      <c r="I22" s="247"/>
-      <c r="J22" s="249"/>
-      <c r="K22" s="247"/>
-      <c r="L22" s="250" t="s">
+      <c r="H22" s="153"/>
+      <c r="I22" s="237"/>
+      <c r="J22" s="239"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="240" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="142" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151" t="s">
+      <c r="C23" s="143"/>
+      <c r="D23" s="143" t="s">
         <v>281</v>
       </c>
       <c r="E23" s="27" t="s">
@@ -6181,27 +6770,27 @@
       <c r="I23" s="66">
         <v>1</v>
       </c>
-      <c r="J23" s="136">
+      <c r="J23" s="128">
         <f>G23*I23</f>
         <v>45000</v>
       </c>
-      <c r="K23" s="151"/>
-      <c r="L23" s="152" t="s">
+      <c r="K23" s="143"/>
+      <c r="L23" s="144" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="251"/>
-      <c r="C24" s="251"/>
-      <c r="D24" s="251"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="251"/>
-      <c r="K24" s="251"/>
-      <c r="L24" s="251"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="243"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="J25" s="20">
@@ -6215,63 +6804,63 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="186" t="s">
+      <c r="C29" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="176" t="s">
         <v>212</v>
       </c>
       <c r="E29" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="186" t="s">
+      <c r="F29" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="186" t="s">
+      <c r="G29" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="H29" s="191" t="s">
+      <c r="H29" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="191" t="s">
+      <c r="I29" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J29" s="191" t="s">
+      <c r="J29" s="181" t="s">
         <v>217</v>
       </c>
       <c r="K29" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="192" t="s">
+      <c r="L29" s="182" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="171" t="s">
+      <c r="C30" s="162" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="172" t="s">
+      <c r="D30" s="163" t="s">
         <v>207</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="134">
+      <c r="F30" s="126">
         <v>3</v>
       </c>
       <c r="G30" s="4">
         <v>60</v>
       </c>
-      <c r="H30" s="134">
-        <v>1</v>
-      </c>
-      <c r="I30" s="134">
+      <c r="H30" s="126">
+        <v>1</v>
+      </c>
+      <c r="I30" s="126">
         <v>120</v>
       </c>
       <c r="J30" s="115">
@@ -6279,315 +6868,315 @@
         <v>7200</v>
       </c>
       <c r="K30" s="45"/>
-      <c r="L30" s="173" t="s">
+      <c r="L30" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="M30" s="174" t="s">
+      <c r="M30" s="165" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="172" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="187">
+      <c r="C34" s="173"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="177">
         <v>10</v>
       </c>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="181"/>
-      <c r="N34" s="181"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="171"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="171"/>
     </row>
     <row r="35" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="175" t="s">
+      <c r="B35" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="175" t="s">
+      <c r="C35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="166" t="s">
         <v>212</v>
       </c>
       <c r="E35" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="175" t="s">
+      <c r="F35" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="175" t="s">
+      <c r="G35" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="H35" s="177" t="s">
+      <c r="H35" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="177" t="s">
+      <c r="I35" s="168" t="s">
         <v>216</v>
       </c>
-      <c r="J35" s="177" t="s">
+      <c r="J35" s="168" t="s">
         <v>217</v>
       </c>
       <c r="K35" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="178" t="s">
+      <c r="L35" s="169" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="197" t="s">
+      <c r="B36" s="187" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="200" t="s">
+      <c r="C36" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="200" t="s">
+      <c r="D36" s="190" t="s">
         <v>223</v>
       </c>
       <c r="E36" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="198">
-        <v>1</v>
-      </c>
-      <c r="G36" s="201">
+      <c r="F36" s="188">
+        <v>1</v>
+      </c>
+      <c r="G36" s="191">
         <v>210</v>
       </c>
-      <c r="H36" s="198">
+      <c r="H36" s="188">
         <v>50</v>
       </c>
-      <c r="I36" s="198">
+      <c r="I36" s="188">
         <v>50</v>
       </c>
-      <c r="J36" s="201">
+      <c r="J36" s="191">
         <v>10500</v>
       </c>
       <c r="K36" s="45"/>
-      <c r="L36" s="176" t="s">
+      <c r="L36" s="167" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="204" t="s">
+      <c r="B37" s="194" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="206" t="s">
+      <c r="C37" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="206" t="s">
+      <c r="D37" s="196" t="s">
         <v>234</v>
       </c>
       <c r="E37" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="185">
-        <v>1</v>
-      </c>
-      <c r="G37" s="185">
+      <c r="F37" s="175">
+        <v>1</v>
+      </c>
+      <c r="G37" s="175">
         <v>210</v>
       </c>
-      <c r="H37" s="185">
+      <c r="H37" s="175">
         <v>10</v>
       </c>
-      <c r="I37" s="185">
+      <c r="I37" s="175">
         <v>10</v>
       </c>
-      <c r="J37" s="188">
+      <c r="J37" s="178">
         <v>2100</v>
       </c>
-      <c r="K37" s="155"/>
-      <c r="L37" s="211" t="s">
+      <c r="K37" s="147"/>
+      <c r="L37" s="201" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="246" t="s">
+      <c r="B38" s="236" t="s">
         <v>236</v>
       </c>
-      <c r="C38" s="208"/>
-      <c r="D38" s="208" t="s">
+      <c r="C38" s="198"/>
+      <c r="D38" s="198" t="s">
         <v>237</v>
       </c>
       <c r="E38" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="209">
+      <c r="F38" s="199">
         <v>2</v>
       </c>
-      <c r="G38" s="217">
+      <c r="G38" s="207">
         <v>80</v>
       </c>
-      <c r="H38" s="209">
+      <c r="H38" s="199">
         <v>100</v>
       </c>
-      <c r="I38" s="209">
+      <c r="I38" s="199">
         <v>100</v>
       </c>
-      <c r="J38" s="210">
+      <c r="J38" s="200">
         <v>4000</v>
       </c>
       <c r="K38" s="46"/>
-      <c r="L38" s="213" t="s">
+      <c r="L38" s="203" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="181"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="194"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="193"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="184"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="183"/>
     </row>
     <row r="40" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="196" t="s">
+      <c r="B40" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="189"/>
-      <c r="D40" s="194"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="193"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="184"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="184"/>
+      <c r="K40" s="183"/>
     </row>
     <row r="41" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="184" t="s">
+      <c r="B41" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="186" t="s">
+      <c r="C41" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="E41" s="154"/>
-      <c r="F41" s="186" t="s">
+      <c r="E41" s="146"/>
+      <c r="F41" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="186" t="s">
+      <c r="G41" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="H41" s="191" t="s">
+      <c r="H41" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="191" t="s">
+      <c r="I41" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J41" s="191" t="s">
+      <c r="J41" s="181" t="s">
         <v>217</v>
       </c>
       <c r="K41" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="192" t="s">
+      <c r="L41" s="182" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="235" t="s">
         <v>244</v>
       </c>
-      <c r="C42" s="200" t="s">
+      <c r="C42" s="190" t="s">
         <v>245</v>
       </c>
-      <c r="D42" s="200" t="s">
+      <c r="D42" s="190" t="s">
         <v>246</v>
       </c>
       <c r="E42" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="198">
-        <v>1</v>
-      </c>
-      <c r="G42" s="219">
+      <c r="F42" s="188">
+        <v>1</v>
+      </c>
+      <c r="G42" s="209">
         <v>270</v>
       </c>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198">
+      <c r="H42" s="188"/>
+      <c r="I42" s="188">
         <v>20</v>
       </c>
-      <c r="J42" s="201">
+      <c r="J42" s="191">
         <v>0</v>
       </c>
       <c r="K42" s="45"/>
-      <c r="L42" s="228" t="s">
+      <c r="L42" s="218" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="241" t="s">
+      <c r="B43" s="231" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="D43" s="206" t="s">
+      <c r="D43" s="196" t="s">
         <v>250</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="185">
-        <v>1</v>
-      </c>
-      <c r="G43" s="215">
+      <c r="F43" s="175">
+        <v>1</v>
+      </c>
+      <c r="G43" s="205">
         <v>200</v>
       </c>
-      <c r="H43" s="185">
+      <c r="H43" s="175">
         <v>10</v>
       </c>
-      <c r="I43" s="185">
+      <c r="I43" s="175">
         <v>10</v>
       </c>
-      <c r="J43" s="188">
+      <c r="J43" s="178">
         <v>2000</v>
       </c>
-      <c r="K43" s="155"/>
-      <c r="L43" s="211" t="s">
+      <c r="K43" s="147"/>
+      <c r="L43" s="201" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="153" t="s">
+      <c r="B44" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="209" t="s">
+      <c r="C44" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="208" t="s">
+      <c r="D44" s="198" t="s">
         <v>253</v>
       </c>
       <c r="E44" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="209">
-        <v>1</v>
-      </c>
-      <c r="G44" s="217">
+      <c r="F44" s="199">
+        <v>1</v>
+      </c>
+      <c r="G44" s="207">
         <v>200</v>
       </c>
-      <c r="H44" s="209">
+      <c r="H44" s="199">
         <v>10</v>
       </c>
-      <c r="I44" s="209">
+      <c r="I44" s="199">
         <v>10</v>
       </c>
-      <c r="J44" s="210">
+      <c r="J44" s="200">
         <v>2000</v>
       </c>
       <c r="K44" s="46"/>
-      <c r="L44" s="213" t="s">
+      <c r="L44" s="203" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6604,25 +7193,25 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J48" s="163">
+      <c r="J48" s="155">
         <f>J47*0.1</f>
         <v>70092</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J49" s="168">
+      <c r="J49" s="159">
         <f>SUM(J47:J48)</f>
         <v>771012</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N26"/>
   <sheetViews>
@@ -6633,649 +7222,649 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="172" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="187">
+      <c r="C7" s="173"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="177">
         <v>10</v>
       </c>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="190">
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="180">
         <v>43172</v>
       </c>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="174" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="186" t="s">
+      <c r="D8" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="186" t="s">
+      <c r="G8" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="I8" s="191" t="s">
+      <c r="I8" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="J8" s="191" t="s">
+      <c r="J8" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="191" t="s">
+      <c r="K8" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="L8" s="191" t="s">
+      <c r="L8" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="M8" s="192" t="s">
+      <c r="M8" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="N8" s="181"/>
+      <c r="N8" s="171"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="197">
-        <v>1</v>
-      </c>
-      <c r="C9" s="199" t="s">
+      <c r="B9" s="187">
+        <v>1</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="198" t="s">
+      <c r="D9" s="188" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="200" t="s">
+      <c r="E9" s="190" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="198">
-        <v>1</v>
-      </c>
-      <c r="G9" s="201">
+      <c r="F9" s="188">
+        <v>1</v>
+      </c>
+      <c r="G9" s="191">
         <v>230</v>
       </c>
-      <c r="H9" s="198">
+      <c r="H9" s="188">
         <v>230</v>
       </c>
-      <c r="I9" s="202">
+      <c r="I9" s="192">
         <v>10</v>
       </c>
-      <c r="J9" s="198">
+      <c r="J9" s="188">
         <v>10</v>
       </c>
-      <c r="K9" s="198">
+      <c r="K9" s="188">
         <v>20</v>
       </c>
-      <c r="L9" s="236">
+      <c r="L9" s="226">
         <v>4600</v>
       </c>
-      <c r="M9" s="203"/>
-      <c r="N9" s="181"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="171"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="222">
+      <c r="B10" s="212">
         <v>2</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="206" t="s">
+      <c r="D10" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="225" t="s">
+      <c r="E10" s="215" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="223">
-        <v>1</v>
-      </c>
-      <c r="G10" s="226">
+      <c r="F10" s="213">
+        <v>1</v>
+      </c>
+      <c r="G10" s="216">
         <v>210</v>
       </c>
-      <c r="H10" s="223">
+      <c r="H10" s="213">
         <v>210</v>
       </c>
-      <c r="I10" s="227">
+      <c r="I10" s="217">
         <v>10</v>
       </c>
-      <c r="J10" s="223">
+      <c r="J10" s="213">
         <v>50</v>
       </c>
-      <c r="K10" s="223">
+      <c r="K10" s="213">
         <v>50</v>
       </c>
-      <c r="L10" s="237">
+      <c r="L10" s="227">
         <v>10500</v>
       </c>
-      <c r="M10" s="211" t="s">
+      <c r="M10" s="201" t="s">
         <v>224</v>
       </c>
-      <c r="N10" s="181"/>
+      <c r="N10" s="171"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="204">
+      <c r="B11" s="194">
         <v>3</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="204" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="206" t="s">
+      <c r="D11" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="206" t="s">
+      <c r="E11" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="206">
+      <c r="F11" s="196">
         <v>12</v>
       </c>
-      <c r="G11" s="215">
+      <c r="G11" s="205">
         <v>480</v>
       </c>
-      <c r="H11" s="206">
+      <c r="H11" s="196">
         <v>40</v>
       </c>
-      <c r="I11" s="216">
+      <c r="I11" s="206">
         <v>120</v>
       </c>
-      <c r="J11" s="206">
+      <c r="J11" s="196">
         <v>100</v>
       </c>
-      <c r="K11" s="206"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="181" t="s">
+      <c r="K11" s="196"/>
+      <c r="L11" s="228"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="171" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="229">
+      <c r="B12" s="219">
         <v>4</v>
       </c>
-      <c r="C12" s="230" t="s">
+      <c r="C12" s="220" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="231" t="s">
+      <c r="D12" s="221" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="232" t="s">
+      <c r="E12" s="222" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="232">
-        <v>1</v>
-      </c>
-      <c r="G12" s="233">
+      <c r="F12" s="222">
+        <v>1</v>
+      </c>
+      <c r="G12" s="223">
         <v>40</v>
       </c>
-      <c r="H12" s="234">
+      <c r="H12" s="224">
         <v>40</v>
       </c>
-      <c r="I12" s="235">
+      <c r="I12" s="225">
         <v>10</v>
       </c>
-      <c r="J12" s="232">
+      <c r="J12" s="222">
         <v>100</v>
       </c>
-      <c r="K12" s="232">
+      <c r="K12" s="222">
         <v>100</v>
       </c>
-      <c r="L12" s="239">
+      <c r="L12" s="229">
         <v>4000</v>
       </c>
-      <c r="M12" s="212" t="s">
+      <c r="M12" s="202" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="181"/>
+      <c r="N12" s="171"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="229">
+      <c r="B13" s="219">
         <v>5</v>
       </c>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="232" t="s">
+      <c r="C13" s="220"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="222" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="232">
+      <c r="F13" s="222">
         <v>2</v>
       </c>
-      <c r="G13" s="233">
+      <c r="G13" s="223">
         <v>80</v>
       </c>
-      <c r="H13" s="234">
+      <c r="H13" s="224">
         <v>40</v>
       </c>
-      <c r="I13" s="235">
+      <c r="I13" s="225">
         <v>10</v>
       </c>
-      <c r="J13" s="232">
+      <c r="J13" s="222">
         <v>100</v>
       </c>
-      <c r="K13" s="232">
+      <c r="K13" s="222">
         <v>100</v>
       </c>
-      <c r="L13" s="239">
+      <c r="L13" s="229">
         <v>4000</v>
       </c>
-      <c r="M13" s="212" t="s">
+      <c r="M13" s="202" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="181"/>
+      <c r="N13" s="171"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="222">
+      <c r="B14" s="212">
         <v>6</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="214" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="206" t="s">
+      <c r="D14" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="225" t="s">
+      <c r="E14" s="215" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="223">
-        <v>1</v>
-      </c>
-      <c r="G14" s="223">
+      <c r="F14" s="213">
+        <v>1</v>
+      </c>
+      <c r="G14" s="213">
         <v>210</v>
       </c>
-      <c r="H14" s="223">
+      <c r="H14" s="213">
         <v>210</v>
       </c>
-      <c r="I14" s="227">
+      <c r="I14" s="217">
         <v>10</v>
       </c>
-      <c r="J14" s="223">
+      <c r="J14" s="213">
         <v>10</v>
       </c>
-      <c r="K14" s="223">
+      <c r="K14" s="213">
         <v>10</v>
       </c>
-      <c r="L14" s="237">
+      <c r="L14" s="227">
         <v>2100</v>
       </c>
-      <c r="M14" s="211" t="s">
+      <c r="M14" s="201" t="s">
         <v>235</v>
       </c>
-      <c r="N14" s="181"/>
+      <c r="N14" s="171"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="222">
+      <c r="B15" s="212">
         <v>7</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="214" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="206"/>
-      <c r="E15" s="225" t="s">
+      <c r="D15" s="196"/>
+      <c r="E15" s="215" t="s">
         <v>237</v>
       </c>
-      <c r="F15" s="223">
+      <c r="F15" s="213">
         <v>2</v>
       </c>
-      <c r="G15" s="215">
+      <c r="G15" s="205">
         <v>80</v>
       </c>
-      <c r="H15" s="223">
+      <c r="H15" s="213">
         <v>40</v>
       </c>
-      <c r="I15" s="227">
+      <c r="I15" s="217">
         <v>10</v>
       </c>
-      <c r="J15" s="223">
+      <c r="J15" s="213">
         <v>100</v>
       </c>
-      <c r="K15" s="223">
+      <c r="K15" s="213">
         <v>100</v>
       </c>
-      <c r="L15" s="237">
+      <c r="L15" s="227">
         <v>4000</v>
       </c>
-      <c r="M15" s="211" t="s">
+      <c r="M15" s="201" t="s">
         <v>238</v>
       </c>
-      <c r="N15" s="181"/>
+      <c r="N15" s="171"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="180">
+      <c r="B16" s="252">
         <v>8</v>
       </c>
-      <c r="C16" s="214"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206" t="s">
+      <c r="C16" s="204"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="206"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="238"/>
-      <c r="M16" s="212"/>
-      <c r="N16" s="181" t="s">
+      <c r="F16" s="196"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="202"/>
+      <c r="N16" s="171" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="180"/>
-      <c r="C17" s="206" t="s">
+      <c r="B17" s="252"/>
+      <c r="C17" s="196" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="206" t="s">
+      <c r="D17" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="206" t="s">
+      <c r="E17" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="F17" s="206">
+      <c r="F17" s="196">
         <v>2</v>
       </c>
-      <c r="G17" s="215">
+      <c r="G17" s="205">
         <v>260</v>
       </c>
-      <c r="H17" s="215">
+      <c r="H17" s="205">
         <v>130</v>
       </c>
-      <c r="I17" s="216">
+      <c r="I17" s="206">
         <v>20</v>
       </c>
-      <c r="J17" s="206">
+      <c r="J17" s="196">
         <v>300</v>
       </c>
-      <c r="K17" s="206">
+      <c r="K17" s="196">
         <v>300</v>
       </c>
-      <c r="L17" s="238"/>
-      <c r="M17" s="207"/>
-      <c r="N17" s="181"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="171"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="167"/>
-      <c r="C18" s="208" t="s">
+      <c r="B18" s="253"/>
+      <c r="C18" s="198" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="208" t="s">
+      <c r="D18" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="208" t="s">
+      <c r="E18" s="198" t="s">
         <v>242</v>
       </c>
-      <c r="F18" s="208">
+      <c r="F18" s="198">
         <v>8</v>
       </c>
-      <c r="G18" s="217">
+      <c r="G18" s="207">
         <v>1040</v>
       </c>
-      <c r="H18" s="217">
+      <c r="H18" s="207">
         <v>130</v>
       </c>
-      <c r="I18" s="218">
+      <c r="I18" s="208">
         <v>80</v>
       </c>
-      <c r="J18" s="208">
+      <c r="J18" s="198">
         <v>300</v>
       </c>
-      <c r="K18" s="208">
+      <c r="K18" s="198">
         <v>300</v>
       </c>
-      <c r="L18" s="240">
+      <c r="L18" s="230">
         <v>39000</v>
       </c>
-      <c r="M18" s="242"/>
-      <c r="N18" s="181"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="171"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="181"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="193"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="196" t="s">
+      <c r="B20" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="193"/>
-      <c r="M20" s="194"/>
-      <c r="N20" s="194"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="184"/>
+      <c r="N20" s="184"/>
     </row>
     <row r="21" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="174" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="186" t="s">
+      <c r="C21" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="186" t="s">
+      <c r="D21" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="F21" s="186" t="s">
+      <c r="F21" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="186" t="s">
+      <c r="G21" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="H21" s="191" t="s">
+      <c r="H21" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="I21" s="191" t="s">
+      <c r="I21" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="J21" s="191" t="s">
+      <c r="J21" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="191" t="s">
+      <c r="K21" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="L21" s="191" t="s">
+      <c r="L21" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="M21" s="192" t="s">
+      <c r="M21" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="N21" s="181"/>
+      <c r="N21" s="171"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="197">
-        <v>1</v>
-      </c>
-      <c r="C22" s="198" t="s">
+      <c r="B22" s="187">
+        <v>1</v>
+      </c>
+      <c r="C22" s="188" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D22" s="190" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="200" t="s">
+      <c r="E22" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="198">
-        <v>1</v>
-      </c>
-      <c r="G22" s="219">
+      <c r="F22" s="188">
+        <v>1</v>
+      </c>
+      <c r="G22" s="209">
         <v>270</v>
       </c>
-      <c r="H22" s="198"/>
-      <c r="I22" s="198">
+      <c r="H22" s="188"/>
+      <c r="I22" s="188">
         <v>20</v>
       </c>
-      <c r="J22" s="198"/>
-      <c r="K22" s="198">
+      <c r="J22" s="188"/>
+      <c r="K22" s="188">
         <v>20</v>
       </c>
-      <c r="L22" s="236">
+      <c r="L22" s="226">
         <v>0</v>
       </c>
-      <c r="M22" s="228" t="s">
+      <c r="M22" s="218" t="s">
         <v>247</v>
       </c>
-      <c r="N22" s="181" t="s">
+      <c r="N22" s="171" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="204">
+      <c r="B23" s="194">
         <v>2</v>
       </c>
-      <c r="C23" s="205"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="206" t="s">
+      <c r="C23" s="195"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="196" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="243"/>
-      <c r="M23" s="207"/>
-      <c r="N23" s="181"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="171"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="180">
+      <c r="B24" s="252">
         <v>3</v>
       </c>
-      <c r="C24" s="206" t="s">
+      <c r="C24" s="196" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="185" t="s">
+      <c r="D24" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="206" t="s">
+      <c r="E24" s="196" t="s">
         <v>250</v>
       </c>
-      <c r="F24" s="185">
-        <v>1</v>
-      </c>
-      <c r="G24" s="215">
+      <c r="F24" s="175">
+        <v>1</v>
+      </c>
+      <c r="G24" s="205">
         <v>200</v>
       </c>
-      <c r="H24" s="188">
+      <c r="H24" s="178">
         <v>200</v>
       </c>
-      <c r="I24" s="185">
+      <c r="I24" s="175">
         <v>10</v>
       </c>
-      <c r="J24" s="185">
+      <c r="J24" s="175">
         <v>10</v>
       </c>
-      <c r="K24" s="185">
+      <c r="K24" s="175">
         <v>10</v>
       </c>
-      <c r="L24" s="237">
+      <c r="L24" s="227">
         <v>2000</v>
       </c>
-      <c r="M24" s="211" t="s">
+      <c r="M24" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="N24" s="181"/>
+      <c r="N24" s="171"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="167"/>
-      <c r="C25" s="208" t="s">
+      <c r="B25" s="253"/>
+      <c r="C25" s="198" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="209" t="s">
+      <c r="D25" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="208" t="s">
+      <c r="E25" s="198" t="s">
         <v>253</v>
       </c>
-      <c r="F25" s="209">
-        <v>1</v>
-      </c>
-      <c r="G25" s="217">
+      <c r="F25" s="199">
+        <v>1</v>
+      </c>
+      <c r="G25" s="207">
         <v>200</v>
       </c>
-      <c r="H25" s="210">
+      <c r="H25" s="200">
         <v>200</v>
       </c>
-      <c r="I25" s="209">
+      <c r="I25" s="199">
         <v>10</v>
       </c>
-      <c r="J25" s="209">
+      <c r="J25" s="199">
         <v>10</v>
       </c>
-      <c r="K25" s="209">
+      <c r="K25" s="199">
         <v>10</v>
       </c>
-      <c r="L25" s="244">
+      <c r="L25" s="234">
         <v>2000</v>
       </c>
-      <c r="M25" s="213" t="s">
+      <c r="M25" s="203" t="s">
         <v>254</v>
       </c>
-      <c r="N25" s="181"/>
+      <c r="N25" s="171"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="181"/>
-      <c r="C26" s="183" t="s">
+      <c r="B26" s="171"/>
+      <c r="C26" s="173" t="s">
         <v>255</v>
       </c>
-      <c r="D26" s="220" t="s">
+      <c r="D26" s="210" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="220" t="s">
+      <c r="E26" s="210" t="s">
         <v>256</v>
       </c>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="221">
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="211">
         <v>2200</v>
       </c>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181" t="s">
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171" t="s">
         <v>257</v>
       </c>
-      <c r="N26" s="181"/>
+      <c r="N26" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B16:B18"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plasma_Gen_Device cost.xlsx
+++ b/Plasma_Gen_Device cost.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Transformer" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="MOSFET" sheetId="2" r:id="rId3"/>
-    <sheet name="Pipette" sheetId="4" r:id="rId4"/>
-    <sheet name="0331" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="개발비" sheetId="7" r:id="rId1"/>
+    <sheet name="Transformer" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MOSFET" sheetId="2" r:id="rId4"/>
+    <sheet name="Pipette" sheetId="4" r:id="rId5"/>
+    <sheet name="0331" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="302">
   <si>
     <t>PN</t>
   </si>
@@ -34,18 +35,18 @@
   </si>
   <si>
     <t>220uF/16V ALUMINUM CAPACITORS 6.3pi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
   </si>
   <si>
     <t>MVG16VC220MF80</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SAMYOUNG</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Agency</t>
@@ -58,30 +59,30 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디바이스마트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SMD E/C 16V 220uF (85℃)/6.3Ø x8mm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -106,42 +107,42 @@
   </si>
   <si>
     <t>53261-0471</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53261-0371</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 3-Pin SMD RA 1A HEADER</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P_value</t>
@@ -151,25 +152,25 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
   </si>
   <si>
     <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Power MOSFET 40V, Single N-Channel, 101A DPAK</t>
@@ -179,354 +180,354 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NTMFS5C604NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NTMFS5C468NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 10.3 m , 37 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>60 V, 1.2 m , 287 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>100 V, 16 m , 42 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>infineon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BSC160N10NS3 G</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>30 V, 0.9m , 47 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 7.8 m , 50 A,Single N−Channel, DPAK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C673NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>60 V, 9.2 m , 50 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007567159</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ON Semiconductor </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>40 V, 2.8 m , 110 A, Single N−Channel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>KEMET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007223445</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>053048-0410</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,4-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P005634295 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,3-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1300C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P000394667 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P000394663 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1310TB</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> P006911086 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CSS-1310MC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SDS5050TCU-S-AP-A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> (주)디웰전자 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P002343866</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5.0x5.0x1.6 size, RGB full coler, SMD파워 3색 LED </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Lite-On Inc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P008219901</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Avago</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P000725384 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LTST-C19HE1WT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LTST-C19FD1WT </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P001586603 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LED RGB DIFFUSED 0606 SMD - 0.35T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LED OGB DIFFUSED 0608 SMD - 0.55T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3 color type LED 6-pin, TOP View, R745mcd, G1600mcd, B380mcd</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>3.4x2.8</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2.00mm</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>LTSN-N213EGBW</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Lite-On Inc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3.0x12.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3.5x12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3.5mm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13A-1x</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13B-11T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P006914254</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CL-SB-13C-11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P006913975</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD Right Angle, key 2x0.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, DIP Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, DIP Right Angle, key 2x0.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, Straight DIP, key 2x0.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CMS-2314A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DP3T slide Switch, SMD J-hook Right Angle, key 4x1.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SP3T slide Switch, SMD J-hook Right Angle, key 2x1.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Nidec Copal Electronics Corporation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Nidec Copal Electronics Corporation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5.4x15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P_size</t>
@@ -536,57 +537,57 @@
   </si>
   <si>
     <t>12512WS-02B</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>YEONHO</t>
   </si>
   <si>
     <t>CON 2-pin, Throgh hole  type</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>5.0x3.6</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>4.2mm</t>
   </si>
   <si>
     <t>1.25mm Pitch CON,2-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>4.25x5.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Status LED</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Slide Key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GAS CON</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -614,227 +615,227 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>재고-2/24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53261-0371</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,3-Pin, SMT Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53048-0310</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53048-0210</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5.50x5.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>53048-0410</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch CON,4-Pin, Dip Right angle_Molex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>6.75x5.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EX-936ESD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> EXSO </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P001909039</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FX-951</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005688454</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EXSO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol 3001 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007193509</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-100 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007193511</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FX-888D(70W)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005688453</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-200 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007193512</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>B3474</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Rubber Cleaner</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>A1561</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>A1559</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1561 클리닝와이어</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P004702618</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1559 스폰지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P004704819</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P002116124</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002116123 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>T18-B</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>T18-3.5K</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>T18-K</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SPPON 18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>18N.18G</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO SPPON NOZZLE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P004702809</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ic114</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BZT52C5V1S</t>
@@ -997,116 +998,205 @@
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UL1007-AWG20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UL전선</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329495 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329190 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>칩저항 키트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P001907055</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>JL-0232 적색</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P005658758</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GHG630DCE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>열풍기(히터건) (GHG630DCE)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> BOSCH </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P007320842</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>P004704064</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8611L</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P004704041 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day[20/M]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour[3/D]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시급</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중치</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/W</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금액</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch PC - Origin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Gen MCU - Origin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Ctrl MCU - Origin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch PC - New</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch PC - WIFI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch PC - PC Program</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Ctrl MCU - New</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1545,7 +1635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2016,227 +2106,287 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -2248,13 +2398,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2268,7 +2418,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2277,7 +2427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2295,32 +2445,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2335,26 +2485,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2368,7 +2518,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2378,20 +2528,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2403,16 +2553,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2425,13 +2575,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2444,89 +2594,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="25" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="25" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2558,7 +2684,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="53" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="53" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -2575,243 +2701,237 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="30" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="25" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="30" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="25" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="15" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="25" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="15" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="25" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="53" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="53" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="10" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="10" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="69" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="53" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="69" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="18" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="18" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="21" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="18" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="18" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="21" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="54" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="32" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="15" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="31" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="32" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="15" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="31" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="17" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="36" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="36" borderId="32" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="32" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="28" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="36" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="32" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="36" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="36" borderId="32" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="32" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="28" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="36" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="29" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="53" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="29" xfId="54" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="53" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2823,6 +2943,83 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="24" fillId="36" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2906,6 +3103,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3069,7 +3269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3104,7 +3304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3313,6 +3513,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="254" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="255"/>
+      <c r="D3" s="256" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="256" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="256" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="256" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="256" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="269" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="263" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="273" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="274">
+        <v>1</v>
+      </c>
+      <c r="E4" s="275">
+        <f>D4*20</f>
+        <v>20</v>
+      </c>
+      <c r="F4" s="275">
+        <f>E4*3</f>
+        <v>60</v>
+      </c>
+      <c r="G4" s="276">
+        <v>25000</v>
+      </c>
+      <c r="H4" s="275">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="277">
+        <f>F4*G4*H4</f>
+        <v>1200000</v>
+      </c>
+      <c r="J4" s="278">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="265"/>
+      <c r="C5" s="266" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="279">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="29">
+        <f>D5*20</f>
+        <v>30</v>
+      </c>
+      <c r="F5" s="29">
+        <f>E5*3</f>
+        <v>90</v>
+      </c>
+      <c r="G5" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="261">
+        <f>F5*G5*H5</f>
+        <v>1800000</v>
+      </c>
+      <c r="J5" s="271"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="265"/>
+      <c r="C6" s="266" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="279">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="29">
+        <f>D6*20</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="29">
+        <f>E6*3</f>
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="261">
+        <f>F6*G6*H6</f>
+        <v>600000</v>
+      </c>
+      <c r="J6" s="271"/>
+    </row>
+    <row r="7" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="267"/>
+      <c r="C7" s="268" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="280">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7*20</f>
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
+        <f>E7*3</f>
+        <v>60</v>
+      </c>
+      <c r="G7" s="6">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="262">
+        <f>F7*G7*H7</f>
+        <v>1200000</v>
+      </c>
+      <c r="J7" s="272"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="263" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="264" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="33">
+        <f>D8*20</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="33">
+        <f>E8*3</f>
+        <v>30</v>
+      </c>
+      <c r="G8" s="259">
+        <v>25000</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="260">
+        <f>F8*G8*H8</f>
+        <v>600000</v>
+      </c>
+      <c r="J8" s="270"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="265"/>
+      <c r="C9" s="266" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="279">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29">
+        <f>D9*20</f>
+        <v>40</v>
+      </c>
+      <c r="F9" s="29">
+        <f>E9*3</f>
+        <v>120</v>
+      </c>
+      <c r="G9" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="261">
+        <f>F9*G9*H9</f>
+        <v>2400000</v>
+      </c>
+      <c r="J9" s="271"/>
+    </row>
+    <row r="10" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="265"/>
+      <c r="C10" s="266" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="279">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <f>D10*20</f>
+        <v>20</v>
+      </c>
+      <c r="F10" s="29">
+        <f>E10*3</f>
+        <v>60</v>
+      </c>
+      <c r="G10" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="261">
+        <f>F10*G10*H10</f>
+        <v>1200000</v>
+      </c>
+      <c r="J10" s="271"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="265"/>
+      <c r="C11" s="266" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="279">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <f>D11*20</f>
+        <v>20</v>
+      </c>
+      <c r="F11" s="29">
+        <f>E11*3</f>
+        <v>60</v>
+      </c>
+      <c r="G11" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="261">
+        <f>F11*G11*H11</f>
+        <v>1200000</v>
+      </c>
+      <c r="J11" s="271"/>
+    </row>
+    <row r="12" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="267"/>
+      <c r="C12" s="268" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="280">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="3">
+        <f>D12*20</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <f>E12*3</f>
+        <v>30</v>
+      </c>
+      <c r="G12" s="6">
+        <v>25000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="262">
+        <f>F12*G12*H12</f>
+        <v>600000</v>
+      </c>
+      <c r="J12" s="272"/>
+    </row>
+    <row r="15" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="254" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="255"/>
+      <c r="D16" s="256" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="256" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="256" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" s="256" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16" s="256" t="s">
+        <v>289</v>
+      </c>
+      <c r="I16" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="J16" s="269" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="263" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="264" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="258">
+        <v>3</v>
+      </c>
+      <c r="E17" s="33">
+        <f>D17*20</f>
+        <v>60</v>
+      </c>
+      <c r="F17" s="33">
+        <f>E17*3</f>
+        <v>180</v>
+      </c>
+      <c r="G17" s="259">
+        <v>23000</v>
+      </c>
+      <c r="H17" s="33">
+        <v>1</v>
+      </c>
+      <c r="I17" s="260">
+        <f>F17*G17*H17</f>
+        <v>4140000</v>
+      </c>
+      <c r="J17" s="270">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="265"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
+        <f>D18*20</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="29">
+        <f>E18*3</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>23000</v>
+      </c>
+      <c r="H18" s="29">
+        <v>1</v>
+      </c>
+      <c r="I18" s="261">
+        <f>F18*G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="271"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="265"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
+        <f>D19*20</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="29">
+        <f>E19*3</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>23000</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="261">
+        <f>F19*G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="271"/>
+    </row>
+    <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="267"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <f>D20*20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f>E20*3</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>23000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="262">
+        <f>F20*G20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="272"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="266" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" s="279">
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29">
+        <f>E24*3</f>
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H24" s="29">
+        <v>1</v>
+      </c>
+      <c r="I24" s="261">
+        <f>F24*G24*H24</f>
+        <v>75000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:B20"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3722,13 +4394,13 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="244" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -3755,9 +4427,9 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="122"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="120"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="8" t="s">
         <v>15</v>
       </c>
@@ -3784,13 +4456,13 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="244" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -3813,9 +4485,9 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="125"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="123"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="247"/>
       <c r="E19" s="10" t="s">
         <v>15</v>
       </c>
@@ -4474,13 +5146,13 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B18:B19"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:H15"/>
   <sheetViews>
@@ -4556,13 +5228,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P37"/>
   <sheetViews>
@@ -4937,12 +5609,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
@@ -5049,13 +5721,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="250" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="251" t="s">
         <v>122</v>
       </c>
       <c r="E7" t="s">
@@ -5078,9 +5750,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="250"/>
+      <c r="C8" s="250"/>
+      <c r="D8" s="251"/>
       <c r="E8" s="1" t="s">
         <v>114</v>
       </c>
@@ -5467,16 +6139,16 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -5497,7 +6169,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="122" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="108" t="s">
@@ -5509,7 +6181,7 @@
       <c r="E2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="123" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="108" t="s">
@@ -5532,13 +6204,13 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="121" t="s">
         <v>165</v>
       </c>
       <c r="E3" s="45" t="s">
@@ -5553,7 +6225,7 @@
       <c r="H3" s="22">
         <v>1</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="136"/>
       <c r="J3" s="97">
         <f t="shared" ref="J3" si="0">G3*I3</f>
         <v>0</v>
@@ -5564,10 +6236,10 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="126" t="s">
         <v>170</v>
       </c>
       <c r="D4" s="29" t="s">
@@ -5576,18 +6248,18 @@
       <c r="E4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="126">
         <v>1</v>
       </c>
       <c r="G4" s="4">
         <v>275000</v>
       </c>
-      <c r="H4" s="134">
-        <v>1</v>
-      </c>
-      <c r="I4" s="134"/>
+      <c r="H4" s="126">
+        <v>1</v>
+      </c>
+      <c r="I4" s="126"/>
       <c r="J4" s="115">
-        <f>G4*I4</f>
+        <f t="shared" ref="J4:J11" si="1">G4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="29"/>
@@ -5596,10 +6268,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="126" t="s">
         <v>170</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -5608,18 +6280,18 @@
       <c r="E5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="134">
+      <c r="F5" s="126">
         <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>110000</v>
       </c>
-      <c r="H5" s="134">
-        <v>1</v>
-      </c>
-      <c r="I5" s="134"/>
+      <c r="H5" s="126">
+        <v>1</v>
+      </c>
+      <c r="I5" s="126"/>
       <c r="J5" s="115">
-        <f>G5*I5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="29"/>
@@ -5628,7 +6300,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="125" t="s">
         <v>180</v>
       </c>
       <c r="C6" s="29"/>
@@ -5638,18 +6310,18 @@
       <c r="E6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="126">
         <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>132000</v>
       </c>
-      <c r="H6" s="134">
-        <v>1</v>
-      </c>
-      <c r="I6" s="134"/>
+      <c r="H6" s="126">
+        <v>1</v>
+      </c>
+      <c r="I6" s="126"/>
       <c r="J6" s="115">
-        <f>G6*I6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="29"/>
@@ -5658,7 +6330,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="127" t="s">
         <v>177</v>
       </c>
       <c r="C7" s="66" t="s">
@@ -5682,52 +6354,52 @@
       <c r="I7" s="66">
         <v>2</v>
       </c>
-      <c r="J7" s="136">
-        <f>G7*I7</f>
+      <c r="J7" s="128">
+        <f t="shared" si="1"/>
         <v>280000</v>
       </c>
       <c r="K7" s="27"/>
-      <c r="L7" s="137" t="s">
+      <c r="L7" s="129" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="139">
-        <v>1</v>
-      </c>
-      <c r="G8" s="141">
+      <c r="F8" s="131">
+        <v>1</v>
+      </c>
+      <c r="G8" s="133">
         <v>270000</v>
       </c>
-      <c r="H8" s="139">
-        <v>1</v>
-      </c>
-      <c r="I8" s="139"/>
-      <c r="J8" s="142">
-        <f>G8*I8</f>
+      <c r="H8" s="131">
+        <v>1</v>
+      </c>
+      <c r="I8" s="131"/>
+      <c r="J8" s="134">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="143" t="s">
+      <c r="K8" s="132"/>
+      <c r="L8" s="135" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="124" t="s">
         <v>167</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -5736,30 +6408,30 @@
       <c r="E9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="132">
-        <v>1</v>
-      </c>
-      <c r="G9" s="146">
+      <c r="F9" s="124">
+        <v>1</v>
+      </c>
+      <c r="G9" s="138">
         <v>12000</v>
       </c>
-      <c r="H9" s="132">
-        <v>1</v>
-      </c>
-      <c r="I9" s="132"/>
+      <c r="H9" s="124">
+        <v>1</v>
+      </c>
+      <c r="I9" s="124"/>
       <c r="J9" s="97">
-        <f>G9*I9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="33"/>
-      <c r="L9" s="147" t="s">
+      <c r="L9" s="139" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="126" t="s">
         <v>167</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -5768,23 +6440,23 @@
       <c r="E10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="126">
         <v>1</v>
       </c>
       <c r="G10" s="29"/>
-      <c r="H10" s="134">
-        <v>1</v>
-      </c>
-      <c r="I10" s="134"/>
+      <c r="H10" s="126">
+        <v>1</v>
+      </c>
+      <c r="I10" s="126"/>
       <c r="J10" s="115">
-        <f>G10*I10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="28"/>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="127" t="s">
         <v>196</v>
       </c>
       <c r="C11" s="66" t="s">
@@ -5799,7 +6471,7 @@
       <c r="F11" s="66">
         <v>1</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="140">
         <v>6500</v>
       </c>
       <c r="H11" s="66">
@@ -5808,20 +6480,20 @@
       <c r="I11" s="66">
         <v>2</v>
       </c>
-      <c r="J11" s="136">
-        <f>G11*I11</f>
+      <c r="J11" s="128">
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="K11" s="27"/>
-      <c r="L11" s="137" t="s">
+      <c r="L11" s="129" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="126" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="44" t="s">
@@ -5837,7 +6509,7 @@
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="127" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="66" t="s">
@@ -5852,7 +6524,7 @@
       <c r="F13" s="66">
         <v>1</v>
       </c>
-      <c r="G13" s="148">
+      <c r="G13" s="140">
         <v>4000</v>
       </c>
       <c r="H13" s="66">
@@ -5861,17 +6533,17 @@
       <c r="I13" s="66">
         <v>2</v>
       </c>
-      <c r="J13" s="136">
+      <c r="J13" s="128">
         <f>G13*I13</f>
         <v>8000</v>
       </c>
       <c r="K13" s="27"/>
-      <c r="L13" s="137" t="s">
+      <c r="L13" s="129" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="127" t="s">
         <v>187</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -5886,7 +6558,7 @@
       <c r="F14" s="66">
         <v>1</v>
       </c>
-      <c r="G14" s="148">
+      <c r="G14" s="140">
         <v>4500</v>
       </c>
       <c r="H14" s="66">
@@ -5895,17 +6567,17 @@
       <c r="I14" s="66">
         <v>2</v>
       </c>
-      <c r="J14" s="136">
+      <c r="J14" s="128">
         <f>G14*I14</f>
         <v>9000</v>
       </c>
       <c r="K14" s="27"/>
-      <c r="L14" s="137" t="s">
+      <c r="L14" s="129" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="127" t="s">
         <v>200</v>
       </c>
       <c r="C15" s="66" t="s">
@@ -5920,7 +6592,7 @@
       <c r="F15" s="66">
         <v>1</v>
       </c>
-      <c r="G15" s="148">
+      <c r="G15" s="140">
         <v>16500</v>
       </c>
       <c r="H15" s="66">
@@ -5929,42 +6601,42 @@
       <c r="I15" s="66">
         <v>1</v>
       </c>
-      <c r="J15" s="136">
+      <c r="J15" s="128">
         <f>G15*I15</f>
         <v>16500</v>
       </c>
       <c r="K15" s="27"/>
-      <c r="L15" s="137" t="s">
+      <c r="L15" s="129" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="170" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="169" t="s">
+      <c r="C16" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="152" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="169">
-        <v>1</v>
-      </c>
-      <c r="G16" s="157">
+      <c r="F16" s="160">
+        <v>1</v>
+      </c>
+      <c r="G16" s="149">
         <v>4100</v>
       </c>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="156"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="148"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="127" t="s">
         <v>259</v>
       </c>
       <c r="C17" s="66" t="s">
@@ -5988,17 +6660,17 @@
       <c r="I17" s="66">
         <v>1</v>
       </c>
-      <c r="J17" s="136">
+      <c r="J17" s="128">
         <f>G17*I17</f>
         <v>9000</v>
       </c>
       <c r="K17" s="27"/>
-      <c r="L17" s="137" t="s">
+      <c r="L17" s="129" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="127" t="s">
         <v>259</v>
       </c>
       <c r="C18" s="66" t="s">
@@ -6022,23 +6694,23 @@
       <c r="I18" s="66">
         <v>1</v>
       </c>
-      <c r="J18" s="136">
+      <c r="J18" s="128">
         <f>G18*I18</f>
         <v>9000</v>
       </c>
       <c r="K18" s="27"/>
-      <c r="L18" s="137" t="s">
+      <c r="L18" s="129" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="158" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="159" t="s">
+      <c r="C19" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="150" t="s">
         <v>266</v>
       </c>
       <c r="E19" s="27" t="s">
@@ -6047,7 +6719,7 @@
       <c r="F19" s="66">
         <v>1</v>
       </c>
-      <c r="G19" s="165">
+      <c r="G19" s="157">
         <v>180000</v>
       </c>
       <c r="H19" s="66">
@@ -6056,23 +6728,23 @@
       <c r="I19" s="66">
         <v>1</v>
       </c>
-      <c r="J19" s="136">
+      <c r="J19" s="128">
         <f>G19*I19</f>
         <v>180000</v>
       </c>
-      <c r="K19" s="158"/>
-      <c r="L19" s="162" t="s">
+      <c r="K19" s="150"/>
+      <c r="L19" s="154" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="166" t="s">
+      <c r="B20" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="150" t="s">
         <v>269</v>
       </c>
       <c r="E20" s="27" t="s">
@@ -6081,32 +6753,32 @@
       <c r="F20" s="66">
         <v>1</v>
       </c>
-      <c r="G20" s="165">
+      <c r="G20" s="157">
         <v>1210</v>
       </c>
-      <c r="H20" s="159">
+      <c r="H20" s="151">
         <v>1</v>
       </c>
       <c r="I20" s="66">
         <v>2</v>
       </c>
-      <c r="J20" s="136">
+      <c r="J20" s="128">
         <f>G20*I20</f>
         <v>2420</v>
       </c>
-      <c r="K20" s="158"/>
-      <c r="L20" s="162" t="s">
+      <c r="K20" s="150"/>
+      <c r="L20" s="154" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="158" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="150" t="s">
         <v>273</v>
       </c>
       <c r="E21" s="27" t="s">
@@ -6115,7 +6787,7 @@
       <c r="F21" s="66">
         <v>1</v>
       </c>
-      <c r="G21" s="165">
+      <c r="G21" s="157">
         <v>101200</v>
       </c>
       <c r="H21" s="66">
@@ -6124,46 +6796,46 @@
       <c r="I21" s="66">
         <v>1</v>
       </c>
-      <c r="J21" s="136">
+      <c r="J21" s="128">
         <f>G21*I21</f>
         <v>101200</v>
       </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="162" t="s">
+      <c r="K21" s="150"/>
+      <c r="L21" s="154" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="161" t="s">
         <v>280</v>
       </c>
-      <c r="C22" s="161"/>
-      <c r="D22" s="247" t="s">
+      <c r="C22" s="153"/>
+      <c r="D22" s="237" t="s">
         <v>279</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="134">
-        <v>1</v>
-      </c>
-      <c r="G22" s="248">
+      <c r="F22" s="126">
+        <v>1</v>
+      </c>
+      <c r="G22" s="238">
         <v>40000</v>
       </c>
-      <c r="H22" s="161"/>
-      <c r="I22" s="247"/>
-      <c r="J22" s="249"/>
-      <c r="K22" s="247"/>
-      <c r="L22" s="250" t="s">
+      <c r="H22" s="153"/>
+      <c r="I22" s="237"/>
+      <c r="J22" s="239"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="240" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="142" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151" t="s">
+      <c r="C23" s="143"/>
+      <c r="D23" s="143" t="s">
         <v>281</v>
       </c>
       <c r="E23" s="27" t="s">
@@ -6181,27 +6853,27 @@
       <c r="I23" s="66">
         <v>1</v>
       </c>
-      <c r="J23" s="136">
+      <c r="J23" s="128">
         <f>G23*I23</f>
         <v>45000</v>
       </c>
-      <c r="K23" s="151"/>
-      <c r="L23" s="152" t="s">
+      <c r="K23" s="143"/>
+      <c r="L23" s="144" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="251"/>
-      <c r="C24" s="251"/>
-      <c r="D24" s="251"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="251"/>
-      <c r="K24" s="251"/>
-      <c r="L24" s="251"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="243"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="J25" s="20">
@@ -6215,63 +6887,63 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="186" t="s">
+      <c r="C29" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="176" t="s">
         <v>212</v>
       </c>
       <c r="E29" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="186" t="s">
+      <c r="F29" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="186" t="s">
+      <c r="G29" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="H29" s="191" t="s">
+      <c r="H29" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="191" t="s">
+      <c r="I29" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J29" s="191" t="s">
+      <c r="J29" s="181" t="s">
         <v>217</v>
       </c>
       <c r="K29" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="192" t="s">
+      <c r="L29" s="182" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="171" t="s">
+      <c r="C30" s="162" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="172" t="s">
+      <c r="D30" s="163" t="s">
         <v>207</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="134">
+      <c r="F30" s="126">
         <v>3</v>
       </c>
       <c r="G30" s="4">
         <v>60</v>
       </c>
-      <c r="H30" s="134">
-        <v>1</v>
-      </c>
-      <c r="I30" s="134">
+      <c r="H30" s="126">
+        <v>1</v>
+      </c>
+      <c r="I30" s="126">
         <v>120</v>
       </c>
       <c r="J30" s="115">
@@ -6279,315 +6951,315 @@
         <v>7200</v>
       </c>
       <c r="K30" s="45"/>
-      <c r="L30" s="173" t="s">
+      <c r="L30" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="M30" s="174" t="s">
+      <c r="M30" s="165" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="172" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="187">
+      <c r="C34" s="173"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="177">
         <v>10</v>
       </c>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="181"/>
-      <c r="N34" s="181"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="171"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="171"/>
     </row>
     <row r="35" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="175" t="s">
+      <c r="B35" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="175" t="s">
+      <c r="C35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="166" t="s">
         <v>212</v>
       </c>
       <c r="E35" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="175" t="s">
+      <c r="F35" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="175" t="s">
+      <c r="G35" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="H35" s="177" t="s">
+      <c r="H35" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="177" t="s">
+      <c r="I35" s="168" t="s">
         <v>216</v>
       </c>
-      <c r="J35" s="177" t="s">
+      <c r="J35" s="168" t="s">
         <v>217</v>
       </c>
       <c r="K35" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="178" t="s">
+      <c r="L35" s="169" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="197" t="s">
+      <c r="B36" s="187" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="200" t="s">
+      <c r="C36" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="200" t="s">
+      <c r="D36" s="190" t="s">
         <v>223</v>
       </c>
       <c r="E36" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="198">
-        <v>1</v>
-      </c>
-      <c r="G36" s="201">
+      <c r="F36" s="188">
+        <v>1</v>
+      </c>
+      <c r="G36" s="191">
         <v>210</v>
       </c>
-      <c r="H36" s="198">
+      <c r="H36" s="188">
         <v>50</v>
       </c>
-      <c r="I36" s="198">
+      <c r="I36" s="188">
         <v>50</v>
       </c>
-      <c r="J36" s="201">
+      <c r="J36" s="191">
         <v>10500</v>
       </c>
       <c r="K36" s="45"/>
-      <c r="L36" s="176" t="s">
+      <c r="L36" s="167" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="204" t="s">
+      <c r="B37" s="194" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="206" t="s">
+      <c r="C37" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="206" t="s">
+      <c r="D37" s="196" t="s">
         <v>234</v>
       </c>
       <c r="E37" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="185">
-        <v>1</v>
-      </c>
-      <c r="G37" s="185">
+      <c r="F37" s="175">
+        <v>1</v>
+      </c>
+      <c r="G37" s="175">
         <v>210</v>
       </c>
-      <c r="H37" s="185">
+      <c r="H37" s="175">
         <v>10</v>
       </c>
-      <c r="I37" s="185">
+      <c r="I37" s="175">
         <v>10</v>
       </c>
-      <c r="J37" s="188">
+      <c r="J37" s="178">
         <v>2100</v>
       </c>
-      <c r="K37" s="155"/>
-      <c r="L37" s="211" t="s">
+      <c r="K37" s="147"/>
+      <c r="L37" s="201" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="246" t="s">
+      <c r="B38" s="236" t="s">
         <v>236</v>
       </c>
-      <c r="C38" s="208"/>
-      <c r="D38" s="208" t="s">
+      <c r="C38" s="198"/>
+      <c r="D38" s="198" t="s">
         <v>237</v>
       </c>
       <c r="E38" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="209">
+      <c r="F38" s="199">
         <v>2</v>
       </c>
-      <c r="G38" s="217">
+      <c r="G38" s="207">
         <v>80</v>
       </c>
-      <c r="H38" s="209">
+      <c r="H38" s="199">
         <v>100</v>
       </c>
-      <c r="I38" s="209">
+      <c r="I38" s="199">
         <v>100</v>
       </c>
-      <c r="J38" s="210">
+      <c r="J38" s="200">
         <v>4000</v>
       </c>
       <c r="K38" s="46"/>
-      <c r="L38" s="213" t="s">
+      <c r="L38" s="203" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="181"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="194"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="193"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="184"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="183"/>
     </row>
     <row r="40" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="196" t="s">
+      <c r="B40" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="189"/>
-      <c r="D40" s="194"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="193"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="184"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="184"/>
+      <c r="K40" s="183"/>
     </row>
     <row r="41" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="184" t="s">
+      <c r="B41" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="186" t="s">
+      <c r="C41" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="E41" s="154"/>
-      <c r="F41" s="186" t="s">
+      <c r="E41" s="146"/>
+      <c r="F41" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="186" t="s">
+      <c r="G41" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="H41" s="191" t="s">
+      <c r="H41" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="191" t="s">
+      <c r="I41" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J41" s="191" t="s">
+      <c r="J41" s="181" t="s">
         <v>217</v>
       </c>
       <c r="K41" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="192" t="s">
+      <c r="L41" s="182" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="235" t="s">
         <v>244</v>
       </c>
-      <c r="C42" s="200" t="s">
+      <c r="C42" s="190" t="s">
         <v>245</v>
       </c>
-      <c r="D42" s="200" t="s">
+      <c r="D42" s="190" t="s">
         <v>246</v>
       </c>
       <c r="E42" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="198">
-        <v>1</v>
-      </c>
-      <c r="G42" s="219">
+      <c r="F42" s="188">
+        <v>1</v>
+      </c>
+      <c r="G42" s="209">
         <v>270</v>
       </c>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198">
+      <c r="H42" s="188"/>
+      <c r="I42" s="188">
         <v>20</v>
       </c>
-      <c r="J42" s="201">
+      <c r="J42" s="191">
         <v>0</v>
       </c>
       <c r="K42" s="45"/>
-      <c r="L42" s="228" t="s">
+      <c r="L42" s="218" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="241" t="s">
+      <c r="B43" s="231" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="D43" s="206" t="s">
+      <c r="D43" s="196" t="s">
         <v>250</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="185">
-        <v>1</v>
-      </c>
-      <c r="G43" s="215">
+      <c r="F43" s="175">
+        <v>1</v>
+      </c>
+      <c r="G43" s="205">
         <v>200</v>
       </c>
-      <c r="H43" s="185">
+      <c r="H43" s="175">
         <v>10</v>
       </c>
-      <c r="I43" s="185">
+      <c r="I43" s="175">
         <v>10</v>
       </c>
-      <c r="J43" s="188">
+      <c r="J43" s="178">
         <v>2000</v>
       </c>
-      <c r="K43" s="155"/>
-      <c r="L43" s="211" t="s">
+      <c r="K43" s="147"/>
+      <c r="L43" s="201" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="153" t="s">
+      <c r="B44" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="209" t="s">
+      <c r="C44" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="208" t="s">
+      <c r="D44" s="198" t="s">
         <v>253</v>
       </c>
       <c r="E44" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="209">
-        <v>1</v>
-      </c>
-      <c r="G44" s="217">
+      <c r="F44" s="199">
+        <v>1</v>
+      </c>
+      <c r="G44" s="207">
         <v>200</v>
       </c>
-      <c r="H44" s="209">
+      <c r="H44" s="199">
         <v>10</v>
       </c>
-      <c r="I44" s="209">
+      <c r="I44" s="199">
         <v>10</v>
       </c>
-      <c r="J44" s="210">
+      <c r="J44" s="200">
         <v>2000</v>
       </c>
       <c r="K44" s="46"/>
-      <c r="L44" s="213" t="s">
+      <c r="L44" s="203" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6604,25 +7276,25 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J48" s="163">
+      <c r="J48" s="155">
         <f>J47*0.1</f>
         <v>70092</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J49" s="168">
+      <c r="J49" s="159">
         <f>SUM(J47:J48)</f>
         <v>771012</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N26"/>
   <sheetViews>
@@ -6633,649 +7305,649 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="172" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="187">
+      <c r="C7" s="173"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="177">
         <v>10</v>
       </c>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="190">
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="180">
         <v>43172</v>
       </c>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="174" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="186" t="s">
+      <c r="D8" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="186" t="s">
+      <c r="G8" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="I8" s="191" t="s">
+      <c r="I8" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="J8" s="191" t="s">
+      <c r="J8" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="191" t="s">
+      <c r="K8" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="L8" s="191" t="s">
+      <c r="L8" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="M8" s="192" t="s">
+      <c r="M8" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="N8" s="181"/>
+      <c r="N8" s="171"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="197">
-        <v>1</v>
-      </c>
-      <c r="C9" s="199" t="s">
+      <c r="B9" s="187">
+        <v>1</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="198" t="s">
+      <c r="D9" s="188" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="200" t="s">
+      <c r="E9" s="190" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="198">
-        <v>1</v>
-      </c>
-      <c r="G9" s="201">
+      <c r="F9" s="188">
+        <v>1</v>
+      </c>
+      <c r="G9" s="191">
         <v>230</v>
       </c>
-      <c r="H9" s="198">
+      <c r="H9" s="188">
         <v>230</v>
       </c>
-      <c r="I9" s="202">
+      <c r="I9" s="192">
         <v>10</v>
       </c>
-      <c r="J9" s="198">
+      <c r="J9" s="188">
         <v>10</v>
       </c>
-      <c r="K9" s="198">
+      <c r="K9" s="188">
         <v>20</v>
       </c>
-      <c r="L9" s="236">
+      <c r="L9" s="226">
         <v>4600</v>
       </c>
-      <c r="M9" s="203"/>
-      <c r="N9" s="181"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="171"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="222">
+      <c r="B10" s="212">
         <v>2</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="206" t="s">
+      <c r="D10" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="225" t="s">
+      <c r="E10" s="215" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="223">
-        <v>1</v>
-      </c>
-      <c r="G10" s="226">
+      <c r="F10" s="213">
+        <v>1</v>
+      </c>
+      <c r="G10" s="216">
         <v>210</v>
       </c>
-      <c r="H10" s="223">
+      <c r="H10" s="213">
         <v>210</v>
       </c>
-      <c r="I10" s="227">
+      <c r="I10" s="217">
         <v>10</v>
       </c>
-      <c r="J10" s="223">
+      <c r="J10" s="213">
         <v>50</v>
       </c>
-      <c r="K10" s="223">
+      <c r="K10" s="213">
         <v>50</v>
       </c>
-      <c r="L10" s="237">
+      <c r="L10" s="227">
         <v>10500</v>
       </c>
-      <c r="M10" s="211" t="s">
+      <c r="M10" s="201" t="s">
         <v>224</v>
       </c>
-      <c r="N10" s="181"/>
+      <c r="N10" s="171"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="204">
+      <c r="B11" s="194">
         <v>3</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="204" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="206" t="s">
+      <c r="D11" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="206" t="s">
+      <c r="E11" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="206">
+      <c r="F11" s="196">
         <v>12</v>
       </c>
-      <c r="G11" s="215">
+      <c r="G11" s="205">
         <v>480</v>
       </c>
-      <c r="H11" s="206">
+      <c r="H11" s="196">
         <v>40</v>
       </c>
-      <c r="I11" s="216">
+      <c r="I11" s="206">
         <v>120</v>
       </c>
-      <c r="J11" s="206">
+      <c r="J11" s="196">
         <v>100</v>
       </c>
-      <c r="K11" s="206"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="181" t="s">
+      <c r="K11" s="196"/>
+      <c r="L11" s="228"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="171" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="229">
+      <c r="B12" s="219">
         <v>4</v>
       </c>
-      <c r="C12" s="230" t="s">
+      <c r="C12" s="220" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="231" t="s">
+      <c r="D12" s="221" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="232" t="s">
+      <c r="E12" s="222" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="232">
-        <v>1</v>
-      </c>
-      <c r="G12" s="233">
+      <c r="F12" s="222">
+        <v>1</v>
+      </c>
+      <c r="G12" s="223">
         <v>40</v>
       </c>
-      <c r="H12" s="234">
+      <c r="H12" s="224">
         <v>40</v>
       </c>
-      <c r="I12" s="235">
+      <c r="I12" s="225">
         <v>10</v>
       </c>
-      <c r="J12" s="232">
+      <c r="J12" s="222">
         <v>100</v>
       </c>
-      <c r="K12" s="232">
+      <c r="K12" s="222">
         <v>100</v>
       </c>
-      <c r="L12" s="239">
+      <c r="L12" s="229">
         <v>4000</v>
       </c>
-      <c r="M12" s="212" t="s">
+      <c r="M12" s="202" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="181"/>
+      <c r="N12" s="171"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="229">
+      <c r="B13" s="219">
         <v>5</v>
       </c>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="232" t="s">
+      <c r="C13" s="220"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="222" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="232">
+      <c r="F13" s="222">
         <v>2</v>
       </c>
-      <c r="G13" s="233">
+      <c r="G13" s="223">
         <v>80</v>
       </c>
-      <c r="H13" s="234">
+      <c r="H13" s="224">
         <v>40</v>
       </c>
-      <c r="I13" s="235">
+      <c r="I13" s="225">
         <v>10</v>
       </c>
-      <c r="J13" s="232">
+      <c r="J13" s="222">
         <v>100</v>
       </c>
-      <c r="K13" s="232">
+      <c r="K13" s="222">
         <v>100</v>
       </c>
-      <c r="L13" s="239">
+      <c r="L13" s="229">
         <v>4000</v>
       </c>
-      <c r="M13" s="212" t="s">
+      <c r="M13" s="202" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="181"/>
+      <c r="N13" s="171"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="222">
+      <c r="B14" s="212">
         <v>6</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="214" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="206" t="s">
+      <c r="D14" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="225" t="s">
+      <c r="E14" s="215" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="223">
-        <v>1</v>
-      </c>
-      <c r="G14" s="223">
+      <c r="F14" s="213">
+        <v>1</v>
+      </c>
+      <c r="G14" s="213">
         <v>210</v>
       </c>
-      <c r="H14" s="223">
+      <c r="H14" s="213">
         <v>210</v>
       </c>
-      <c r="I14" s="227">
+      <c r="I14" s="217">
         <v>10</v>
       </c>
-      <c r="J14" s="223">
+      <c r="J14" s="213">
         <v>10</v>
       </c>
-      <c r="K14" s="223">
+      <c r="K14" s="213">
         <v>10</v>
       </c>
-      <c r="L14" s="237">
+      <c r="L14" s="227">
         <v>2100</v>
       </c>
-      <c r="M14" s="211" t="s">
+      <c r="M14" s="201" t="s">
         <v>235</v>
       </c>
-      <c r="N14" s="181"/>
+      <c r="N14" s="171"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="222">
+      <c r="B15" s="212">
         <v>7</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="214" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="206"/>
-      <c r="E15" s="225" t="s">
+      <c r="D15" s="196"/>
+      <c r="E15" s="215" t="s">
         <v>237</v>
       </c>
-      <c r="F15" s="223">
+      <c r="F15" s="213">
         <v>2</v>
       </c>
-      <c r="G15" s="215">
+      <c r="G15" s="205">
         <v>80</v>
       </c>
-      <c r="H15" s="223">
+      <c r="H15" s="213">
         <v>40</v>
       </c>
-      <c r="I15" s="227">
+      <c r="I15" s="217">
         <v>10</v>
       </c>
-      <c r="J15" s="223">
+      <c r="J15" s="213">
         <v>100</v>
       </c>
-      <c r="K15" s="223">
+      <c r="K15" s="213">
         <v>100</v>
       </c>
-      <c r="L15" s="237">
+      <c r="L15" s="227">
         <v>4000</v>
       </c>
-      <c r="M15" s="211" t="s">
+      <c r="M15" s="201" t="s">
         <v>238</v>
       </c>
-      <c r="N15" s="181"/>
+      <c r="N15" s="171"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="180">
+      <c r="B16" s="252">
         <v>8</v>
       </c>
-      <c r="C16" s="214"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206" t="s">
+      <c r="C16" s="204"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="206"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="238"/>
-      <c r="M16" s="212"/>
-      <c r="N16" s="181" t="s">
+      <c r="F16" s="196"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="202"/>
+      <c r="N16" s="171" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="180"/>
-      <c r="C17" s="206" t="s">
+      <c r="B17" s="252"/>
+      <c r="C17" s="196" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="206" t="s">
+      <c r="D17" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="206" t="s">
+      <c r="E17" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="F17" s="206">
+      <c r="F17" s="196">
         <v>2</v>
       </c>
-      <c r="G17" s="215">
+      <c r="G17" s="205">
         <v>260</v>
       </c>
-      <c r="H17" s="215">
+      <c r="H17" s="205">
         <v>130</v>
       </c>
-      <c r="I17" s="216">
+      <c r="I17" s="206">
         <v>20</v>
       </c>
-      <c r="J17" s="206">
+      <c r="J17" s="196">
         <v>300</v>
       </c>
-      <c r="K17" s="206">
+      <c r="K17" s="196">
         <v>300</v>
       </c>
-      <c r="L17" s="238"/>
-      <c r="M17" s="207"/>
-      <c r="N17" s="181"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="171"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="167"/>
-      <c r="C18" s="208" t="s">
+      <c r="B18" s="253"/>
+      <c r="C18" s="198" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="208" t="s">
+      <c r="D18" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="208" t="s">
+      <c r="E18" s="198" t="s">
         <v>242</v>
       </c>
-      <c r="F18" s="208">
+      <c r="F18" s="198">
         <v>8</v>
       </c>
-      <c r="G18" s="217">
+      <c r="G18" s="207">
         <v>1040</v>
       </c>
-      <c r="H18" s="217">
+      <c r="H18" s="207">
         <v>130</v>
       </c>
-      <c r="I18" s="218">
+      <c r="I18" s="208">
         <v>80</v>
       </c>
-      <c r="J18" s="208">
+      <c r="J18" s="198">
         <v>300</v>
       </c>
-      <c r="K18" s="208">
+      <c r="K18" s="198">
         <v>300</v>
       </c>
-      <c r="L18" s="240">
+      <c r="L18" s="230">
         <v>39000</v>
       </c>
-      <c r="M18" s="242"/>
-      <c r="N18" s="181"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="171"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="181"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="193"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="196" t="s">
+      <c r="B20" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="193"/>
-      <c r="M20" s="194"/>
-      <c r="N20" s="194"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="184"/>
+      <c r="N20" s="184"/>
     </row>
     <row r="21" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="174" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="186" t="s">
+      <c r="C21" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="186" t="s">
+      <c r="D21" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="F21" s="186" t="s">
+      <c r="F21" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="186" t="s">
+      <c r="G21" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="H21" s="191" t="s">
+      <c r="H21" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="I21" s="191" t="s">
+      <c r="I21" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="J21" s="191" t="s">
+      <c r="J21" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="191" t="s">
+      <c r="K21" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="L21" s="191" t="s">
+      <c r="L21" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="M21" s="192" t="s">
+      <c r="M21" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="N21" s="181"/>
+      <c r="N21" s="171"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="197">
-        <v>1</v>
-      </c>
-      <c r="C22" s="198" t="s">
+      <c r="B22" s="187">
+        <v>1</v>
+      </c>
+      <c r="C22" s="188" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D22" s="190" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="200" t="s">
+      <c r="E22" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="198">
-        <v>1</v>
-      </c>
-      <c r="G22" s="219">
+      <c r="F22" s="188">
+        <v>1</v>
+      </c>
+      <c r="G22" s="209">
         <v>270</v>
       </c>
-      <c r="H22" s="198"/>
-      <c r="I22" s="198">
+      <c r="H22" s="188"/>
+      <c r="I22" s="188">
         <v>20</v>
       </c>
-      <c r="J22" s="198"/>
-      <c r="K22" s="198">
+      <c r="J22" s="188"/>
+      <c r="K22" s="188">
         <v>20</v>
       </c>
-      <c r="L22" s="236">
+      <c r="L22" s="226">
         <v>0</v>
       </c>
-      <c r="M22" s="228" t="s">
+      <c r="M22" s="218" t="s">
         <v>247</v>
       </c>
-      <c r="N22" s="181" t="s">
+      <c r="N22" s="171" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="204">
+      <c r="B23" s="194">
         <v>2</v>
       </c>
-      <c r="C23" s="205"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="206" t="s">
+      <c r="C23" s="195"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="196" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="243"/>
-      <c r="M23" s="207"/>
-      <c r="N23" s="181"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="171"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="180">
+      <c r="B24" s="252">
         <v>3</v>
       </c>
-      <c r="C24" s="206" t="s">
+      <c r="C24" s="196" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="185" t="s">
+      <c r="D24" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="206" t="s">
+      <c r="E24" s="196" t="s">
         <v>250</v>
       </c>
-      <c r="F24" s="185">
-        <v>1</v>
-      </c>
-      <c r="G24" s="215">
+      <c r="F24" s="175">
+        <v>1</v>
+      </c>
+      <c r="G24" s="205">
         <v>200</v>
       </c>
-      <c r="H24" s="188">
+      <c r="H24" s="178">
         <v>200</v>
       </c>
-      <c r="I24" s="185">
+      <c r="I24" s="175">
         <v>10</v>
       </c>
-      <c r="J24" s="185">
+      <c r="J24" s="175">
         <v>10</v>
       </c>
-      <c r="K24" s="185">
+      <c r="K24" s="175">
         <v>10</v>
       </c>
-      <c r="L24" s="237">
+      <c r="L24" s="227">
         <v>2000</v>
       </c>
-      <c r="M24" s="211" t="s">
+      <c r="M24" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="N24" s="181"/>
+      <c r="N24" s="171"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="167"/>
-      <c r="C25" s="208" t="s">
+      <c r="B25" s="253"/>
+      <c r="C25" s="198" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="209" t="s">
+      <c r="D25" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="208" t="s">
+      <c r="E25" s="198" t="s">
         <v>253</v>
       </c>
-      <c r="F25" s="209">
-        <v>1</v>
-      </c>
-      <c r="G25" s="217">
+      <c r="F25" s="199">
+        <v>1</v>
+      </c>
+      <c r="G25" s="207">
         <v>200</v>
       </c>
-      <c r="H25" s="210">
+      <c r="H25" s="200">
         <v>200</v>
       </c>
-      <c r="I25" s="209">
+      <c r="I25" s="199">
         <v>10</v>
       </c>
-      <c r="J25" s="209">
+      <c r="J25" s="199">
         <v>10</v>
       </c>
-      <c r="K25" s="209">
+      <c r="K25" s="199">
         <v>10</v>
       </c>
-      <c r="L25" s="244">
+      <c r="L25" s="234">
         <v>2000</v>
       </c>
-      <c r="M25" s="213" t="s">
+      <c r="M25" s="203" t="s">
         <v>254</v>
       </c>
-      <c r="N25" s="181"/>
+      <c r="N25" s="171"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="181"/>
-      <c r="C26" s="183" t="s">
+      <c r="B26" s="171"/>
+      <c r="C26" s="173" t="s">
         <v>255</v>
       </c>
-      <c r="D26" s="220" t="s">
+      <c r="D26" s="210" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="220" t="s">
+      <c r="E26" s="210" t="s">
         <v>256</v>
       </c>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="221">
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="211">
         <v>2200</v>
       </c>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181" t="s">
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171" t="s">
         <v>257</v>
       </c>
-      <c r="N26" s="181"/>
+      <c r="N26" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B16:B18"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>